--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikit\Downloads\fmh_android_15_03_24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312E5FED-781A-4F36-985D-7DEB2481454A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03819A5D-A434-4C0A-8F51-7D2B63B5353E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1275" yWindow="-120" windowWidth="27645" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -162,9 +162,6 @@
     <t>Поле "Password" пустое</t>
   </si>
   <si>
-    <t>Ошибка "Wrong login or password"</t>
-  </si>
-  <si>
     <t>В поле "Password" введены данные незарегестрированного пользователя</t>
   </si>
   <si>
@@ -685,6 +682,9 @@
   </si>
   <si>
     <t>Ошибка "This site can’t be reached"</t>
+  </si>
+  <si>
+    <t>Ошибка Something went wronk. Try again later"</t>
   </si>
 </sst>
 </file>
@@ -1025,7 +1025,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1092,43 +1092,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1149,9 +1112,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1160,19 +1120,17 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1184,7 +1142,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1192,11 +1150,49 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1482,8 +1478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O767"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L264" sqref="L264"/>
+    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
+      <selection activeCell="B265" sqref="B265:B267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1514,14 +1510,14 @@
       <c r="E1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="20" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="H1" s="38" t="s">
-        <v>216</v>
+        <v>213</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>215</v>
       </c>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
@@ -1532,26 +1528,26 @@
       <c r="O1" s="6"/>
     </row>
     <row r="2" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="20">
+      <c r="A2" s="45">
         <v>0</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="23"/>
+      <c r="D2" s="47"/>
       <c r="E2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="H2" s="39" t="s">
+      <c r="G2" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="H2" s="36" t="s">
         <v>21</v>
       </c>
       <c r="I2" s="5"/>
@@ -1563,18 +1559,18 @@
       <c r="O2" s="6"/>
     </row>
     <row r="3" spans="1:15" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="23"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="47"/>
       <c r="E3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="22"/>
-      <c r="H3" s="39"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="36"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
@@ -1584,18 +1580,18 @@
       <c r="O3" s="6"/>
     </row>
     <row r="4" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="23"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="47"/>
       <c r="E4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="39"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="36"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -1605,18 +1601,18 @@
       <c r="O4" s="6"/>
     </row>
     <row r="5" spans="1:15" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="23"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="47"/>
       <c r="E5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="39"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="36"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
@@ -1626,18 +1622,18 @@
       <c r="O5" s="6"/>
     </row>
     <row r="6" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="23"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="47"/>
       <c r="E6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="39"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="36"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
@@ -1647,18 +1643,18 @@
       <c r="O6" s="6"/>
     </row>
     <row r="7" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="23"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="47"/>
       <c r="E7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="39"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="36"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
@@ -1668,18 +1664,18 @@
       <c r="O7" s="6"/>
     </row>
     <row r="8" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="23"/>
+      <c r="A8" s="45"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="47"/>
       <c r="E8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="F8" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="39"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="36"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -1689,26 +1685,26 @@
       <c r="O8" s="6"/>
     </row>
     <row r="9" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="20">
+      <c r="A9" s="45">
         <v>1</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="23"/>
+      <c r="D9" s="47"/>
       <c r="E9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="H9" s="39" t="s">
+      <c r="G9" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="H9" s="36" t="s">
         <v>21</v>
       </c>
       <c r="I9" s="5"/>
@@ -1720,18 +1716,18 @@
       <c r="O9" s="6"/>
     </row>
     <row r="10" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="47"/>
       <c r="E10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="22"/>
-      <c r="H10" s="39"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="36"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -1741,18 +1737,18 @@
       <c r="O10" s="6"/>
     </row>
     <row r="11" spans="1:15" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="23"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="47"/>
       <c r="E11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="22"/>
-      <c r="H11" s="39"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="36"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -1762,18 +1758,18 @@
       <c r="O11" s="6"/>
     </row>
     <row r="12" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="23"/>
+      <c r="A12" s="45"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="47"/>
       <c r="E12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="F12" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="22"/>
-      <c r="H12" s="39"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="36"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
@@ -1783,26 +1779,26 @@
       <c r="O12" s="6"/>
     </row>
     <row r="13" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="20">
+      <c r="A13" s="45">
         <v>2</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="23"/>
+      <c r="D13" s="47"/>
       <c r="E13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="F13" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="H13" s="39" t="s">
+      <c r="G13" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="H13" s="36" t="s">
         <v>33</v>
       </c>
       <c r="I13" s="5"/>
@@ -1814,18 +1810,18 @@
       <c r="O13" s="6"/>
     </row>
     <row r="14" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
+      <c r="A14" s="45"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="47"/>
       <c r="E14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="32" t="s">
+      <c r="F14" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="22"/>
-      <c r="H14" s="39"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="36"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
@@ -1835,18 +1831,18 @@
       <c r="O14" s="6"/>
     </row>
     <row r="15" spans="1:15" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="23"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="47"/>
       <c r="E15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="F15" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="22"/>
-      <c r="H15" s="39"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="36"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
@@ -1856,18 +1852,18 @@
       <c r="O15" s="6"/>
     </row>
     <row r="16" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="23"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="47"/>
       <c r="E16" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="32" t="s">
+      <c r="F16" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="22"/>
-      <c r="H16" s="39"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="36"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
@@ -1877,27 +1873,27 @@
       <c r="O16" s="6"/>
     </row>
     <row r="17" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20">
+      <c r="A17" s="45">
         <v>3</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="23"/>
+      <c r="D17" s="47"/>
       <c r="E17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="32" t="s">
+      <c r="F17" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="H17" s="40" t="s">
-        <v>217</v>
+      <c r="G17" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="H17" s="36" t="s">
+        <v>216</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
@@ -1908,18 +1904,18 @@
       <c r="O17" s="6"/>
     </row>
     <row r="18" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="23"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="47"/>
       <c r="E18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="32" t="s">
+      <c r="F18" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="22"/>
-      <c r="H18" s="40"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="36"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
@@ -1929,18 +1925,18 @@
       <c r="O18" s="6"/>
     </row>
     <row r="19" spans="1:15" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="23"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="47"/>
       <c r="E19" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="32" t="s">
+      <c r="F19" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="22"/>
-      <c r="H19" s="40"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="36"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
@@ -1949,19 +1945,19 @@
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
     </row>
-    <row r="20" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="23"/>
+    <row r="20" spans="1:15" ht="63" x14ac:dyDescent="0.25">
+      <c r="A20" s="45"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="47"/>
       <c r="E20" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="G20" s="22"/>
-      <c r="H20" s="40"/>
+      <c r="F20" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="G20" s="44"/>
+      <c r="H20" s="36"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
@@ -1971,27 +1967,27 @@
       <c r="O20" s="6"/>
     </row>
     <row r="21" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="20">
+      <c r="A21" s="45">
         <v>4</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="23"/>
+      <c r="D21" s="47"/>
       <c r="E21" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="32" t="s">
+      <c r="F21" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="H21" s="40" t="s">
-        <v>217</v>
+      <c r="G21" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="H21" s="36" t="s">
+        <v>216</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
@@ -2002,18 +1998,18 @@
       <c r="O21" s="6"/>
     </row>
     <row r="22" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="23"/>
+      <c r="A22" s="45"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="47"/>
       <c r="E22" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="32" t="s">
+      <c r="F22" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="22"/>
-      <c r="H22" s="40"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="36"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
@@ -2023,18 +2019,18 @@
       <c r="O22" s="6"/>
     </row>
     <row r="23" spans="1:15" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="23"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="47"/>
       <c r="E23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F23" s="32" t="s">
+      <c r="F23" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="G23" s="22"/>
-      <c r="H23" s="40"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="36"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
@@ -2043,19 +2039,19 @@
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
     </row>
-    <row r="24" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="23"/>
+    <row r="24" spans="1:15" ht="63" x14ac:dyDescent="0.25">
+      <c r="A24" s="45"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="47"/>
       <c r="E24" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="G24" s="22"/>
-      <c r="H24" s="40"/>
+      <c r="F24" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="G24" s="44"/>
+      <c r="H24" s="36"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
@@ -2065,27 +2061,27 @@
       <c r="O24" s="6"/>
     </row>
     <row r="25" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="20">
+      <c r="A25" s="45">
         <v>5</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="23"/>
+      <c r="D25" s="47"/>
       <c r="E25" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="32" t="s">
+      <c r="F25" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="H25" s="40" t="s">
-        <v>217</v>
+      <c r="G25" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="H25" s="36" t="s">
+        <v>216</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
@@ -2096,18 +2092,18 @@
       <c r="O25" s="6"/>
     </row>
     <row r="26" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="23"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="47"/>
       <c r="E26" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F26" s="32" t="s">
+      <c r="F26" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="G26" s="22"/>
-      <c r="H26" s="40"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="36"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
@@ -2117,18 +2113,18 @@
       <c r="O26" s="6"/>
     </row>
     <row r="27" spans="1:15" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="20"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="23"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="47"/>
       <c r="E27" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="32" t="s">
+      <c r="F27" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="G27" s="22"/>
-      <c r="H27" s="40"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="36"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
@@ -2137,19 +2133,19 @@
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
     </row>
-    <row r="28" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="20"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="23"/>
+    <row r="28" spans="1:15" ht="63" x14ac:dyDescent="0.25">
+      <c r="A28" s="45"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="47"/>
       <c r="E28" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="G28" s="22"/>
-      <c r="H28" s="40"/>
+      <c r="F28" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="G28" s="44"/>
+      <c r="H28" s="36"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
@@ -2159,26 +2155,26 @@
       <c r="O28" s="6"/>
     </row>
     <row r="29" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="20">
+      <c r="A29" s="45">
         <v>6</v>
       </c>
-      <c r="B29" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="22" t="s">
+      <c r="B29" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="23"/>
+      <c r="D29" s="47"/>
       <c r="E29" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="32" t="s">
+      <c r="F29" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="G29" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="H29" s="39" t="s">
+      <c r="G29" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="H29" s="36" t="s">
         <v>33</v>
       </c>
       <c r="I29" s="5"/>
@@ -2190,18 +2186,18 @@
       <c r="O29" s="6"/>
     </row>
     <row r="30" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="23"/>
+      <c r="A30" s="45"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="47"/>
       <c r="E30" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F30" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="G30" s="22"/>
-      <c r="H30" s="39"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="36"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
@@ -2211,18 +2207,18 @@
       <c r="O30" s="6"/>
     </row>
     <row r="31" spans="1:15" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="20"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="23"/>
+      <c r="A31" s="45"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="47"/>
       <c r="E31" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F31" s="32" t="s">
+      <c r="F31" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="G31" s="22"/>
-      <c r="H31" s="39"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="36"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
@@ -2232,18 +2228,18 @@
       <c r="O31" s="6"/>
     </row>
     <row r="32" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="20"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="23"/>
+      <c r="A32" s="45"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="47"/>
       <c r="E32" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F32" s="32" t="s">
+      <c r="F32" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="G32" s="22"/>
-      <c r="H32" s="39"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="36"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
@@ -2253,27 +2249,27 @@
       <c r="O32" s="6"/>
     </row>
     <row r="33" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="20">
+      <c r="A33" s="45">
         <v>7</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="23"/>
+      <c r="D33" s="47"/>
       <c r="E33" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F33" s="32" t="s">
+      <c r="F33" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="G33" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="H33" s="40" t="s">
-        <v>217</v>
+      <c r="G33" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="H33" s="36" t="s">
+        <v>216</v>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
@@ -2284,18 +2280,18 @@
       <c r="O33" s="6"/>
     </row>
     <row r="34" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="A34" s="20"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="23"/>
+      <c r="A34" s="45"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="47"/>
       <c r="E34" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F34" s="32" t="s">
+      <c r="F34" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="G34" s="22"/>
-      <c r="H34" s="40"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="36"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
@@ -2305,18 +2301,18 @@
       <c r="O34" s="6"/>
     </row>
     <row r="35" spans="1:15" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="20"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="23"/>
+      <c r="A35" s="45"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="47"/>
       <c r="E35" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F35" s="32" t="s">
+      <c r="F35" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="G35" s="22"/>
-      <c r="H35" s="40"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="36"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
@@ -2325,19 +2321,19 @@
       <c r="N35" s="6"/>
       <c r="O35" s="6"/>
     </row>
-    <row r="36" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="20"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="23"/>
+    <row r="36" spans="1:15" ht="63" x14ac:dyDescent="0.25">
+      <c r="A36" s="45"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="47"/>
       <c r="E36" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F36" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="G36" s="22"/>
-      <c r="H36" s="40"/>
+      <c r="F36" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="G36" s="44"/>
+      <c r="H36" s="36"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
@@ -2347,26 +2343,26 @@
       <c r="O36" s="6"/>
     </row>
     <row r="37" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="20">
+      <c r="A37" s="45">
         <v>8</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="D37" s="23"/>
+      <c r="D37" s="47"/>
       <c r="E37" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F37" s="32" t="s">
+      <c r="F37" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="G37" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="H37" s="39" t="s">
+      <c r="G37" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="H37" s="36" t="s">
         <v>33</v>
       </c>
       <c r="I37" s="5"/>
@@ -2378,18 +2374,18 @@
       <c r="O37" s="6"/>
     </row>
     <row r="38" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="A38" s="20"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="23"/>
+      <c r="A38" s="45"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="47"/>
       <c r="E38" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F38" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="F38" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="G38" s="22"/>
-      <c r="H38" s="39"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="36"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
@@ -2399,18 +2395,18 @@
       <c r="O38" s="6"/>
     </row>
     <row r="39" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="20"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="23"/>
+      <c r="A39" s="45"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="47"/>
       <c r="E39" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F39" s="32" t="s">
+      <c r="F39" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="G39" s="22"/>
-      <c r="H39" s="39"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="36"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
@@ -2420,18 +2416,18 @@
       <c r="O39" s="6"/>
     </row>
     <row r="40" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A40" s="20"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="23"/>
+      <c r="A40" s="45"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="47"/>
       <c r="E40" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F40" s="32" t="s">
+      <c r="F40" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="G40" s="22"/>
-      <c r="H40" s="39"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="36"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
@@ -2441,27 +2437,27 @@
       <c r="O40" s="6"/>
     </row>
     <row r="41" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A41" s="20">
+      <c r="A41" s="45">
         <v>9</v>
       </c>
-      <c r="B41" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41" s="22" t="s">
+      <c r="B41" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="23"/>
+      <c r="D41" s="47"/>
       <c r="E41" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F41" s="32" t="s">
+      <c r="F41" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="G41" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="H41" s="40" t="s">
-        <v>217</v>
+      <c r="G41" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="H41" s="36" t="s">
+        <v>216</v>
       </c>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
@@ -2472,18 +2468,18 @@
       <c r="O41" s="6"/>
     </row>
     <row r="42" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="20"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="23"/>
+      <c r="A42" s="45"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="47"/>
       <c r="E42" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F42" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="F42" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="G42" s="22"/>
-      <c r="H42" s="40"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="36"/>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
@@ -2493,18 +2489,18 @@
       <c r="O42" s="6"/>
     </row>
     <row r="43" spans="1:15" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="20"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="23"/>
+      <c r="A43" s="45"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="47"/>
       <c r="E43" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F43" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="F43" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="G43" s="22"/>
-      <c r="H43" s="40"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="36"/>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
@@ -2513,19 +2509,19 @@
       <c r="N43" s="6"/>
       <c r="O43" s="6"/>
     </row>
-    <row r="44" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="20"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="23"/>
+    <row r="44" spans="1:15" ht="63" x14ac:dyDescent="0.25">
+      <c r="A44" s="45"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="47"/>
       <c r="E44" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F44" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="G44" s="22"/>
-      <c r="H44" s="40"/>
+      <c r="F44" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="G44" s="44"/>
+      <c r="H44" s="36"/>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
@@ -2535,27 +2531,27 @@
       <c r="O44" s="6"/>
     </row>
     <row r="45" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="20">
+      <c r="A45" s="45">
         <v>10</v>
       </c>
-      <c r="B45" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C45" s="22" t="s">
+      <c r="B45" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="D45" s="23"/>
+      <c r="D45" s="47"/>
       <c r="E45" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F45" s="32" t="s">
+      <c r="F45" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="G45" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="H45" s="40" t="s">
-        <v>217</v>
+      <c r="G45" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="H45" s="36" t="s">
+        <v>216</v>
       </c>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
@@ -2566,18 +2562,18 @@
       <c r="O45" s="6"/>
     </row>
     <row r="46" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="20"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="23"/>
+      <c r="A46" s="45"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="47"/>
       <c r="E46" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F46" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="F46" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="G46" s="22"/>
-      <c r="H46" s="40"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="36"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
@@ -2587,18 +2583,18 @@
       <c r="O46" s="6"/>
     </row>
     <row r="47" spans="1:15" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="20"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="23"/>
+      <c r="A47" s="45"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="47"/>
       <c r="E47" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F47" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="F47" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="G47" s="22"/>
-      <c r="H47" s="40"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="36"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
@@ -2607,19 +2603,19 @@
       <c r="N47" s="6"/>
       <c r="O47" s="6"/>
     </row>
-    <row r="48" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="20"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="23"/>
+    <row r="48" spans="1:15" ht="63" x14ac:dyDescent="0.25">
+      <c r="A48" s="45"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="47"/>
       <c r="E48" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F48" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="G48" s="22"/>
-      <c r="H48" s="40"/>
+      <c r="F48" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="G48" s="44"/>
+      <c r="H48" s="36"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
@@ -2629,27 +2625,27 @@
       <c r="O48" s="6"/>
     </row>
     <row r="49" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A49" s="20">
+      <c r="A49" s="45">
         <v>11</v>
       </c>
-      <c r="B49" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C49" s="22" t="s">
+      <c r="B49" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="D49" s="23"/>
+      <c r="D49" s="47"/>
       <c r="E49" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F49" s="32" t="s">
+      <c r="F49" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="G49" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="H49" s="40" t="s">
-        <v>217</v>
+      <c r="G49" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="H49" s="36" t="s">
+        <v>216</v>
       </c>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
@@ -2660,18 +2656,18 @@
       <c r="O49" s="6"/>
     </row>
     <row r="50" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="20"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="23"/>
+      <c r="A50" s="45"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="47"/>
       <c r="E50" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F50" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="F50" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="G50" s="22"/>
-      <c r="H50" s="40"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="36"/>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
@@ -2681,18 +2677,18 @@
       <c r="O50" s="6"/>
     </row>
     <row r="51" spans="1:15" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="20"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="23"/>
+      <c r="A51" s="45"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="47"/>
       <c r="E51" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F51" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="F51" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="G51" s="22"/>
-      <c r="H51" s="40"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="36"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
@@ -2701,19 +2697,19 @@
       <c r="N51" s="6"/>
       <c r="O51" s="6"/>
     </row>
-    <row r="52" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="20"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="23"/>
+    <row r="52" spans="1:15" ht="63" x14ac:dyDescent="0.25">
+      <c r="A52" s="45"/>
+      <c r="B52" s="46"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="47"/>
       <c r="E52" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F52" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="G52" s="22"/>
-      <c r="H52" s="40"/>
+      <c r="F52" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="G52" s="44"/>
+      <c r="H52" s="36"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
@@ -2723,27 +2719,27 @@
       <c r="O52" s="6"/>
     </row>
     <row r="53" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A53" s="20">
+      <c r="A53" s="45">
         <v>12</v>
       </c>
-      <c r="B53" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C53" s="22" t="s">
+      <c r="B53" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="D53" s="23"/>
+      <c r="D53" s="47"/>
       <c r="E53" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F53" s="32" t="s">
+      <c r="F53" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="G53" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="H53" s="40" t="s">
-        <v>217</v>
+      <c r="G53" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="H53" s="36" t="s">
+        <v>216</v>
       </c>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
@@ -2754,18 +2750,18 @@
       <c r="O53" s="6"/>
     </row>
     <row r="54" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="20"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="23"/>
+      <c r="A54" s="45"/>
+      <c r="B54" s="46"/>
+      <c r="C54" s="44"/>
+      <c r="D54" s="47"/>
       <c r="E54" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F54" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="F54" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="G54" s="22"/>
-      <c r="H54" s="40"/>
+      <c r="G54" s="44"/>
+      <c r="H54" s="36"/>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
@@ -2775,18 +2771,18 @@
       <c r="O54" s="6"/>
     </row>
     <row r="55" spans="1:15" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="20"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="23"/>
+      <c r="A55" s="45"/>
+      <c r="B55" s="46"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="47"/>
       <c r="E55" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F55" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="F55" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="G55" s="22"/>
-      <c r="H55" s="40"/>
+      <c r="G55" s="44"/>
+      <c r="H55" s="36"/>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
@@ -2795,19 +2791,19 @@
       <c r="N55" s="6"/>
       <c r="O55" s="6"/>
     </row>
-    <row r="56" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="20"/>
-      <c r="B56" s="21"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="23"/>
+    <row r="56" spans="1:15" ht="63" x14ac:dyDescent="0.25">
+      <c r="A56" s="45"/>
+      <c r="B56" s="46"/>
+      <c r="C56" s="44"/>
+      <c r="D56" s="47"/>
       <c r="E56" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F56" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="G56" s="22"/>
-      <c r="H56" s="40"/>
+      <c r="F56" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="G56" s="44"/>
+      <c r="H56" s="36"/>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
@@ -2817,26 +2813,26 @@
       <c r="O56" s="6"/>
     </row>
     <row r="57" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="20">
+      <c r="A57" s="45">
         <v>13</v>
       </c>
-      <c r="B57" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C57" s="22" t="s">
+      <c r="B57" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="D57" s="23"/>
+      <c r="D57" s="47"/>
       <c r="E57" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F57" s="32" t="s">
+      <c r="F57" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="G57" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="H57" s="39" t="s">
+      <c r="G57" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="H57" s="36" t="s">
         <v>33</v>
       </c>
       <c r="I57" s="5"/>
@@ -2848,18 +2844,18 @@
       <c r="O57" s="6"/>
     </row>
     <row r="58" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="20"/>
-      <c r="B58" s="21"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="23"/>
+      <c r="A58" s="45"/>
+      <c r="B58" s="46"/>
+      <c r="C58" s="44"/>
+      <c r="D58" s="47"/>
       <c r="E58" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F58" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="F58" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="G58" s="22"/>
-      <c r="H58" s="39"/>
+      <c r="G58" s="44"/>
+      <c r="H58" s="36"/>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
@@ -2869,18 +2865,18 @@
       <c r="O58" s="6"/>
     </row>
     <row r="59" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A59" s="20"/>
-      <c r="B59" s="21"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="23"/>
+      <c r="A59" s="45"/>
+      <c r="B59" s="46"/>
+      <c r="C59" s="44"/>
+      <c r="D59" s="47"/>
       <c r="E59" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F59" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="F59" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="G59" s="22"/>
-      <c r="H59" s="39"/>
+      <c r="G59" s="44"/>
+      <c r="H59" s="36"/>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
@@ -2890,18 +2886,18 @@
       <c r="O59" s="6"/>
     </row>
     <row r="60" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A60" s="20"/>
-      <c r="B60" s="21"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="23"/>
+      <c r="A60" s="45"/>
+      <c r="B60" s="46"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="47"/>
       <c r="E60" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F60" s="32" t="s">
+      <c r="F60" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="G60" s="22"/>
-      <c r="H60" s="39"/>
+      <c r="G60" s="44"/>
+      <c r="H60" s="36"/>
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
@@ -2915,25 +2911,25 @@
         <v>14</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C61" s="19" t="s">
         <v>6</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E61" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F61" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="F61" s="32" t="s">
-        <v>61</v>
-      </c>
       <c r="G61" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="H61" s="46" t="s">
-        <v>61</v>
+        <v>214</v>
+      </c>
+      <c r="H61" s="27" t="s">
+        <v>60</v>
       </c>
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
@@ -2944,29 +2940,29 @@
       <c r="O61" s="6"/>
     </row>
     <row r="62" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A62" s="20">
+      <c r="A62" s="45">
         <v>15</v>
       </c>
-      <c r="B62" s="21" t="s">
+      <c r="B62" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="E62" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C62" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D62" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="E62" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F62" s="32" t="s">
+      <c r="F62" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="G62" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="H62" s="32" t="s">
         <v>66</v>
-      </c>
-      <c r="G62" s="41" t="s">
-        <v>215</v>
-      </c>
-      <c r="H62" s="44" t="s">
-        <v>67</v>
       </c>
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
@@ -2977,18 +2973,18 @@
       <c r="O62" s="6"/>
     </row>
     <row r="63" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="A63" s="20"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
+      <c r="A63" s="45"/>
+      <c r="B63" s="46"/>
+      <c r="C63" s="44"/>
+      <c r="D63" s="44"/>
       <c r="E63" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F63" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="G63" s="42"/>
-      <c r="H63" s="45"/>
+        <v>64</v>
+      </c>
+      <c r="F63" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="G63" s="31"/>
+      <c r="H63" s="33"/>
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
@@ -2998,29 +2994,29 @@
       <c r="O63" s="6"/>
     </row>
     <row r="64" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A64" s="20">
+      <c r="A64" s="45">
         <v>16</v>
       </c>
-      <c r="B64" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="C64" s="22" t="s">
+      <c r="B64" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="C64" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="D64" s="22" t="s">
-        <v>62</v>
+      <c r="D64" s="44" t="s">
+        <v>61</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F64" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="G64" s="41" t="s">
-        <v>215</v>
-      </c>
-      <c r="H64" s="44" t="s">
-        <v>82</v>
+        <v>63</v>
+      </c>
+      <c r="F64" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G64" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="H64" s="32" t="s">
+        <v>81</v>
       </c>
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
@@ -3031,18 +3027,18 @@
       <c r="O64" s="6"/>
     </row>
     <row r="65" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="A65" s="20"/>
-      <c r="B65" s="24"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
+      <c r="A65" s="45"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="44"/>
+      <c r="D65" s="44"/>
       <c r="E65" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="F65" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="G65" s="43"/>
-      <c r="H65" s="47"/>
+        <v>76</v>
+      </c>
+      <c r="F65" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="G65" s="34"/>
+      <c r="H65" s="35"/>
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
@@ -3052,18 +3048,18 @@
       <c r="O65" s="6"/>
     </row>
     <row r="66" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="A66" s="20"/>
-      <c r="B66" s="24"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="22"/>
+      <c r="A66" s="45"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="44"/>
+      <c r="D66" s="44"/>
       <c r="E66" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F66" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="G66" s="43"/>
-      <c r="H66" s="47"/>
+        <v>77</v>
+      </c>
+      <c r="F66" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="G66" s="34"/>
+      <c r="H66" s="35"/>
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
@@ -3073,18 +3069,18 @@
       <c r="O66" s="6"/>
     </row>
     <row r="67" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="A67" s="20"/>
-      <c r="B67" s="24"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
+      <c r="A67" s="45"/>
+      <c r="B67" s="39"/>
+      <c r="C67" s="44"/>
+      <c r="D67" s="44"/>
       <c r="E67" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="F67" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="G67" s="42"/>
-      <c r="H67" s="45"/>
+        <v>78</v>
+      </c>
+      <c r="F67" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="G67" s="31"/>
+      <c r="H67" s="33"/>
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
@@ -3094,29 +3090,29 @@
       <c r="O67" s="6"/>
     </row>
     <row r="68" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A68" s="20">
+      <c r="A68" s="45">
         <v>17</v>
       </c>
-      <c r="B68" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="C68" s="22" t="s">
+      <c r="B68" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="C68" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="D68" s="22" t="s">
-        <v>62</v>
+      <c r="D68" s="44" t="s">
+        <v>61</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F68" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="G68" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="H68" s="39" t="s">
-        <v>84</v>
+        <v>63</v>
+      </c>
+      <c r="F68" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G68" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="H68" s="36" t="s">
+        <v>83</v>
       </c>
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
@@ -3127,18 +3123,18 @@
       <c r="O68" s="6"/>
     </row>
     <row r="69" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="A69" s="20"/>
-      <c r="B69" s="24"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="22"/>
+      <c r="A69" s="45"/>
+      <c r="B69" s="39"/>
+      <c r="C69" s="44"/>
+      <c r="D69" s="44"/>
       <c r="E69" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="F69" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="G69" s="22"/>
-      <c r="H69" s="39"/>
+        <v>76</v>
+      </c>
+      <c r="F69" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="G69" s="44"/>
+      <c r="H69" s="36"/>
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
@@ -3148,18 +3144,18 @@
       <c r="O69" s="6"/>
     </row>
     <row r="70" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="A70" s="20"/>
-      <c r="B70" s="24"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="22"/>
+      <c r="A70" s="45"/>
+      <c r="B70" s="39"/>
+      <c r="C70" s="44"/>
+      <c r="D70" s="44"/>
       <c r="E70" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="F70" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="G70" s="22"/>
-      <c r="H70" s="39"/>
+        <v>82</v>
+      </c>
+      <c r="F70" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="G70" s="44"/>
+      <c r="H70" s="36"/>
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
@@ -3169,18 +3165,18 @@
       <c r="O70" s="6"/>
     </row>
     <row r="71" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="A71" s="20"/>
-      <c r="B71" s="24"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="22"/>
+      <c r="A71" s="45"/>
+      <c r="B71" s="39"/>
+      <c r="C71" s="44"/>
+      <c r="D71" s="44"/>
       <c r="E71" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="F71" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="G71" s="22"/>
-      <c r="H71" s="39"/>
+        <v>78</v>
+      </c>
+      <c r="F71" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="G71" s="44"/>
+      <c r="H71" s="36"/>
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
@@ -3190,29 +3186,29 @@
       <c r="O71" s="6"/>
     </row>
     <row r="72" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A72" s="20">
+      <c r="A72" s="45">
         <v>18</v>
       </c>
-      <c r="B72" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="C72" s="22" t="s">
+      <c r="B72" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="C72" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="D72" s="22" t="s">
-        <v>62</v>
+      <c r="D72" s="44" t="s">
+        <v>61</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F72" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="G72" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="H72" s="39" t="s">
-        <v>86</v>
+        <v>63</v>
+      </c>
+      <c r="F72" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G72" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="H72" s="36" t="s">
+        <v>85</v>
       </c>
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
@@ -3223,18 +3219,18 @@
       <c r="O72" s="6"/>
     </row>
     <row r="73" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="A73" s="20"/>
-      <c r="B73" s="24"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="22"/>
+      <c r="A73" s="45"/>
+      <c r="B73" s="39"/>
+      <c r="C73" s="44"/>
+      <c r="D73" s="44"/>
       <c r="E73" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="F73" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="G73" s="22"/>
-      <c r="H73" s="39"/>
+        <v>76</v>
+      </c>
+      <c r="F73" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="G73" s="44"/>
+      <c r="H73" s="36"/>
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
@@ -3244,18 +3240,18 @@
       <c r="O73" s="6"/>
     </row>
     <row r="74" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="A74" s="20"/>
-      <c r="B74" s="24"/>
-      <c r="C74" s="22"/>
-      <c r="D74" s="22"/>
+      <c r="A74" s="45"/>
+      <c r="B74" s="39"/>
+      <c r="C74" s="44"/>
+      <c r="D74" s="44"/>
       <c r="E74" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="F74" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="G74" s="22"/>
-      <c r="H74" s="39"/>
+        <v>84</v>
+      </c>
+      <c r="F74" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="G74" s="44"/>
+      <c r="H74" s="36"/>
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
@@ -3265,18 +3261,18 @@
       <c r="O74" s="6"/>
     </row>
     <row r="75" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="A75" s="20"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="22"/>
+      <c r="A75" s="45"/>
+      <c r="B75" s="39"/>
+      <c r="C75" s="44"/>
+      <c r="D75" s="44"/>
       <c r="E75" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="F75" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="G75" s="22"/>
-      <c r="H75" s="39"/>
+        <v>78</v>
+      </c>
+      <c r="F75" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="G75" s="44"/>
+      <c r="H75" s="36"/>
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
@@ -3286,29 +3282,29 @@
       <c r="O75" s="6"/>
     </row>
     <row r="76" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A76" s="20">
+      <c r="A76" s="45">
         <v>19</v>
       </c>
-      <c r="B76" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="C76" s="22" t="s">
+      <c r="B76" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="C76" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="D76" s="22" t="s">
-        <v>62</v>
+      <c r="D76" s="44" t="s">
+        <v>61</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F76" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="G76" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="H76" s="39" t="s">
-        <v>88</v>
+        <v>63</v>
+      </c>
+      <c r="F76" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G76" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="H76" s="36" t="s">
+        <v>87</v>
       </c>
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
@@ -3319,18 +3315,18 @@
       <c r="O76" s="6"/>
     </row>
     <row r="77" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="A77" s="20"/>
-      <c r="B77" s="24"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="22"/>
+      <c r="A77" s="45"/>
+      <c r="B77" s="39"/>
+      <c r="C77" s="44"/>
+      <c r="D77" s="44"/>
       <c r="E77" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="F77" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="G77" s="22"/>
-      <c r="H77" s="39"/>
+        <v>76</v>
+      </c>
+      <c r="F77" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="G77" s="44"/>
+      <c r="H77" s="36"/>
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
@@ -3340,18 +3336,18 @@
       <c r="O77" s="6"/>
     </row>
     <row r="78" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="A78" s="20"/>
-      <c r="B78" s="24"/>
-      <c r="C78" s="22"/>
-      <c r="D78" s="22"/>
+      <c r="A78" s="45"/>
+      <c r="B78" s="39"/>
+      <c r="C78" s="44"/>
+      <c r="D78" s="44"/>
       <c r="E78" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="F78" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="G78" s="22"/>
-      <c r="H78" s="39"/>
+        <v>86</v>
+      </c>
+      <c r="F78" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="G78" s="44"/>
+      <c r="H78" s="36"/>
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
@@ -3361,18 +3357,18 @@
       <c r="O78" s="6"/>
     </row>
     <row r="79" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="A79" s="20"/>
-      <c r="B79" s="24"/>
-      <c r="C79" s="22"/>
-      <c r="D79" s="22"/>
+      <c r="A79" s="45"/>
+      <c r="B79" s="39"/>
+      <c r="C79" s="44"/>
+      <c r="D79" s="44"/>
       <c r="E79" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="F79" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="G79" s="22"/>
-      <c r="H79" s="39"/>
+        <v>78</v>
+      </c>
+      <c r="F79" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="G79" s="44"/>
+      <c r="H79" s="36"/>
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
@@ -3382,29 +3378,29 @@
       <c r="O79" s="6"/>
     </row>
     <row r="80" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A80" s="20">
+      <c r="A80" s="45">
         <v>20</v>
       </c>
-      <c r="B80" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="C80" s="22" t="s">
+      <c r="B80" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="C80" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="D80" s="22" t="s">
-        <v>62</v>
+      <c r="D80" s="44" t="s">
+        <v>61</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F80" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="G80" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="H80" s="39" t="s">
-        <v>90</v>
+        <v>63</v>
+      </c>
+      <c r="F80" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G80" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="H80" s="36" t="s">
+        <v>89</v>
       </c>
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
@@ -3415,18 +3411,18 @@
       <c r="O80" s="6"/>
     </row>
     <row r="81" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="A81" s="20"/>
-      <c r="B81" s="24"/>
-      <c r="C81" s="22"/>
-      <c r="D81" s="22"/>
+      <c r="A81" s="45"/>
+      <c r="B81" s="39"/>
+      <c r="C81" s="44"/>
+      <c r="D81" s="44"/>
       <c r="E81" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="F81" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="G81" s="22"/>
-      <c r="H81" s="39"/>
+        <v>76</v>
+      </c>
+      <c r="F81" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="G81" s="44"/>
+      <c r="H81" s="36"/>
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
@@ -3436,18 +3432,18 @@
       <c r="O81" s="6"/>
     </row>
     <row r="82" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="A82" s="20"/>
-      <c r="B82" s="24"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="22"/>
+      <c r="A82" s="45"/>
+      <c r="B82" s="39"/>
+      <c r="C82" s="44"/>
+      <c r="D82" s="44"/>
       <c r="E82" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="F82" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="G82" s="22"/>
-      <c r="H82" s="39"/>
+        <v>88</v>
+      </c>
+      <c r="F82" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="G82" s="44"/>
+      <c r="H82" s="36"/>
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
@@ -3457,18 +3453,18 @@
       <c r="O82" s="6"/>
     </row>
     <row r="83" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="A83" s="20"/>
-      <c r="B83" s="24"/>
-      <c r="C83" s="22"/>
-      <c r="D83" s="22"/>
+      <c r="A83" s="45"/>
+      <c r="B83" s="39"/>
+      <c r="C83" s="44"/>
+      <c r="D83" s="44"/>
       <c r="E83" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="F83" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="G83" s="22"/>
-      <c r="H83" s="39"/>
+        <v>78</v>
+      </c>
+      <c r="F83" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="G83" s="44"/>
+      <c r="H83" s="36"/>
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
@@ -3478,29 +3474,29 @@
       <c r="O83" s="6"/>
     </row>
     <row r="84" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A84" s="20">
+      <c r="A84" s="45">
         <v>21</v>
       </c>
-      <c r="B84" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="C84" s="22" t="s">
+      <c r="B84" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="C84" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="D84" s="22" t="s">
-        <v>62</v>
+      <c r="D84" s="44" t="s">
+        <v>61</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F84" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="G84" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="H84" s="39" t="s">
-        <v>92</v>
+        <v>63</v>
+      </c>
+      <c r="F84" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G84" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="H84" s="36" t="s">
+        <v>91</v>
       </c>
       <c r="I84" s="5"/>
       <c r="J84" s="5"/>
@@ -3511,18 +3507,18 @@
       <c r="O84" s="6"/>
     </row>
     <row r="85" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="A85" s="20"/>
-      <c r="B85" s="24"/>
-      <c r="C85" s="22"/>
-      <c r="D85" s="22"/>
+      <c r="A85" s="45"/>
+      <c r="B85" s="39"/>
+      <c r="C85" s="44"/>
+      <c r="D85" s="44"/>
       <c r="E85" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="F85" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="G85" s="22"/>
-      <c r="H85" s="39"/>
+        <v>76</v>
+      </c>
+      <c r="F85" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="G85" s="44"/>
+      <c r="H85" s="36"/>
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
@@ -3532,18 +3528,18 @@
       <c r="O85" s="6"/>
     </row>
     <row r="86" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="A86" s="20"/>
-      <c r="B86" s="24"/>
-      <c r="C86" s="22"/>
-      <c r="D86" s="22"/>
+      <c r="A86" s="45"/>
+      <c r="B86" s="39"/>
+      <c r="C86" s="44"/>
+      <c r="D86" s="44"/>
       <c r="E86" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F86" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="G86" s="22"/>
-      <c r="H86" s="39"/>
+        <v>90</v>
+      </c>
+      <c r="F86" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="G86" s="44"/>
+      <c r="H86" s="36"/>
       <c r="I86" s="5"/>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
@@ -3553,18 +3549,18 @@
       <c r="O86" s="6"/>
     </row>
     <row r="87" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="A87" s="20"/>
-      <c r="B87" s="24"/>
-      <c r="C87" s="22"/>
-      <c r="D87" s="22"/>
+      <c r="A87" s="45"/>
+      <c r="B87" s="39"/>
+      <c r="C87" s="44"/>
+      <c r="D87" s="44"/>
       <c r="E87" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="F87" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="G87" s="22"/>
-      <c r="H87" s="39"/>
+        <v>78</v>
+      </c>
+      <c r="F87" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="G87" s="44"/>
+      <c r="H87" s="36"/>
       <c r="I87" s="5"/>
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
@@ -3574,29 +3570,29 @@
       <c r="O87" s="6"/>
     </row>
     <row r="88" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A88" s="20">
+      <c r="A88" s="45">
         <v>22</v>
       </c>
-      <c r="B88" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="C88" s="22" t="s">
+      <c r="B88" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C88" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="D88" s="22" t="s">
-        <v>62</v>
+      <c r="D88" s="44" t="s">
+        <v>61</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F88" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="G88" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="H88" s="39" t="s">
-        <v>94</v>
+        <v>63</v>
+      </c>
+      <c r="F88" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G88" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="H88" s="36" t="s">
+        <v>93</v>
       </c>
       <c r="I88" s="5"/>
       <c r="J88" s="5"/>
@@ -3607,18 +3603,18 @@
       <c r="O88" s="6"/>
     </row>
     <row r="89" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="A89" s="20"/>
-      <c r="B89" s="24"/>
-      <c r="C89" s="22"/>
-      <c r="D89" s="22"/>
+      <c r="A89" s="45"/>
+      <c r="B89" s="39"/>
+      <c r="C89" s="44"/>
+      <c r="D89" s="44"/>
       <c r="E89" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="F89" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="G89" s="22"/>
-      <c r="H89" s="39"/>
+        <v>76</v>
+      </c>
+      <c r="F89" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="G89" s="44"/>
+      <c r="H89" s="36"/>
       <c r="I89" s="5"/>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
@@ -3628,18 +3624,18 @@
       <c r="O89" s="6"/>
     </row>
     <row r="90" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="A90" s="20"/>
-      <c r="B90" s="24"/>
-      <c r="C90" s="22"/>
-      <c r="D90" s="22"/>
+      <c r="A90" s="45"/>
+      <c r="B90" s="39"/>
+      <c r="C90" s="44"/>
+      <c r="D90" s="44"/>
       <c r="E90" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="F90" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="G90" s="22"/>
-      <c r="H90" s="39"/>
+        <v>92</v>
+      </c>
+      <c r="F90" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="G90" s="44"/>
+      <c r="H90" s="36"/>
       <c r="I90" s="5"/>
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
@@ -3649,18 +3645,18 @@
       <c r="O90" s="6"/>
     </row>
     <row r="91" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="A91" s="20"/>
-      <c r="B91" s="24"/>
-      <c r="C91" s="22"/>
-      <c r="D91" s="22"/>
+      <c r="A91" s="45"/>
+      <c r="B91" s="39"/>
+      <c r="C91" s="44"/>
+      <c r="D91" s="44"/>
       <c r="E91" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="F91" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="G91" s="22"/>
-      <c r="H91" s="39"/>
+        <v>78</v>
+      </c>
+      <c r="F91" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="G91" s="44"/>
+      <c r="H91" s="36"/>
       <c r="I91" s="5"/>
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
@@ -3670,29 +3666,29 @@
       <c r="O91" s="6"/>
     </row>
     <row r="92" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A92" s="20">
+      <c r="A92" s="45">
         <v>23</v>
       </c>
-      <c r="B92" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="C92" s="22" t="s">
+      <c r="B92" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="C92" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="D92" s="22" t="s">
-        <v>62</v>
+      <c r="D92" s="44" t="s">
+        <v>61</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F92" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="G92" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="H92" s="39" t="s">
-        <v>96</v>
+        <v>63</v>
+      </c>
+      <c r="F92" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G92" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="H92" s="36" t="s">
+        <v>95</v>
       </c>
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
@@ -3703,18 +3699,18 @@
       <c r="O92" s="6"/>
     </row>
     <row r="93" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="A93" s="20"/>
-      <c r="B93" s="24"/>
-      <c r="C93" s="22"/>
-      <c r="D93" s="22"/>
+      <c r="A93" s="45"/>
+      <c r="B93" s="39"/>
+      <c r="C93" s="44"/>
+      <c r="D93" s="44"/>
       <c r="E93" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="F93" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="G93" s="22"/>
-      <c r="H93" s="39"/>
+        <v>76</v>
+      </c>
+      <c r="F93" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="G93" s="44"/>
+      <c r="H93" s="36"/>
       <c r="I93" s="5"/>
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
@@ -3724,18 +3720,18 @@
       <c r="O93" s="6"/>
     </row>
     <row r="94" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="A94" s="20"/>
-      <c r="B94" s="24"/>
-      <c r="C94" s="22"/>
-      <c r="D94" s="22"/>
+      <c r="A94" s="45"/>
+      <c r="B94" s="39"/>
+      <c r="C94" s="44"/>
+      <c r="D94" s="44"/>
       <c r="E94" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="F94" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="G94" s="22"/>
-      <c r="H94" s="39"/>
+        <v>94</v>
+      </c>
+      <c r="F94" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="G94" s="44"/>
+      <c r="H94" s="36"/>
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
@@ -3745,18 +3741,18 @@
       <c r="O94" s="6"/>
     </row>
     <row r="95" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="A95" s="20"/>
-      <c r="B95" s="24"/>
-      <c r="C95" s="22"/>
-      <c r="D95" s="22"/>
+      <c r="A95" s="45"/>
+      <c r="B95" s="39"/>
+      <c r="C95" s="44"/>
+      <c r="D95" s="44"/>
       <c r="E95" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="F95" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="G95" s="22"/>
-      <c r="H95" s="39"/>
+        <v>78</v>
+      </c>
+      <c r="F95" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="G95" s="44"/>
+      <c r="H95" s="36"/>
       <c r="I95" s="5"/>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
@@ -3766,29 +3762,29 @@
       <c r="O95" s="6"/>
     </row>
     <row r="96" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A96" s="20">
+      <c r="A96" s="45">
         <v>24</v>
       </c>
-      <c r="B96" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="C96" s="22" t="s">
+      <c r="B96" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="C96" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="D96" s="22" t="s">
-        <v>62</v>
+      <c r="D96" s="44" t="s">
+        <v>61</v>
       </c>
       <c r="E96" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F96" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="G96" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="H96" s="39" t="s">
-        <v>99</v>
+        <v>63</v>
+      </c>
+      <c r="F96" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G96" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="H96" s="36" t="s">
+        <v>98</v>
       </c>
       <c r="I96" s="5"/>
       <c r="J96" s="5"/>
@@ -3799,18 +3795,18 @@
       <c r="O96" s="6"/>
     </row>
     <row r="97" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="A97" s="20"/>
-      <c r="B97" s="24"/>
-      <c r="C97" s="22"/>
-      <c r="D97" s="22"/>
+      <c r="A97" s="45"/>
+      <c r="B97" s="39"/>
+      <c r="C97" s="44"/>
+      <c r="D97" s="44"/>
       <c r="E97" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="F97" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="G97" s="22"/>
-      <c r="H97" s="39"/>
+        <v>76</v>
+      </c>
+      <c r="F97" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="G97" s="44"/>
+      <c r="H97" s="36"/>
       <c r="I97" s="5"/>
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
@@ -3820,18 +3816,18 @@
       <c r="O97" s="6"/>
     </row>
     <row r="98" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="20"/>
-      <c r="B98" s="24"/>
-      <c r="C98" s="22"/>
-      <c r="D98" s="22"/>
+      <c r="A98" s="45"/>
+      <c r="B98" s="39"/>
+      <c r="C98" s="44"/>
+      <c r="D98" s="44"/>
       <c r="E98" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="F98" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="F98" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="G98" s="22"/>
-      <c r="H98" s="39"/>
+      <c r="G98" s="44"/>
+      <c r="H98" s="36"/>
       <c r="I98" s="5"/>
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
@@ -3841,18 +3837,18 @@
       <c r="O98" s="6"/>
     </row>
     <row r="99" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A99" s="20"/>
-      <c r="B99" s="24"/>
-      <c r="C99" s="22"/>
-      <c r="D99" s="22"/>
+      <c r="A99" s="45"/>
+      <c r="B99" s="39"/>
+      <c r="C99" s="44"/>
+      <c r="D99" s="44"/>
       <c r="E99" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="F99" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="G99" s="22"/>
-      <c r="H99" s="39"/>
+        <v>78</v>
+      </c>
+      <c r="F99" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="G99" s="44"/>
+      <c r="H99" s="36"/>
       <c r="I99" s="5"/>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
@@ -3862,29 +3858,29 @@
       <c r="O99" s="6"/>
     </row>
     <row r="100" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A100" s="20">
+      <c r="A100" s="45">
         <v>25</v>
       </c>
-      <c r="B100" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="C100" s="22" t="s">
+      <c r="B100" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="C100" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="D100" s="22" t="s">
-        <v>62</v>
+      <c r="D100" s="44" t="s">
+        <v>61</v>
       </c>
       <c r="E100" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F100" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="G100" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="H100" s="39" t="s">
-        <v>99</v>
+        <v>63</v>
+      </c>
+      <c r="F100" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G100" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="H100" s="36" t="s">
+        <v>98</v>
       </c>
       <c r="I100" s="5"/>
       <c r="J100" s="5"/>
@@ -3895,18 +3891,18 @@
       <c r="O100" s="6"/>
     </row>
     <row r="101" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="A101" s="20"/>
-      <c r="B101" s="24"/>
-      <c r="C101" s="22"/>
-      <c r="D101" s="22"/>
+      <c r="A101" s="45"/>
+      <c r="B101" s="39"/>
+      <c r="C101" s="44"/>
+      <c r="D101" s="44"/>
       <c r="E101" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="F101" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="G101" s="22"/>
-      <c r="H101" s="39"/>
+        <v>76</v>
+      </c>
+      <c r="F101" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="G101" s="44"/>
+      <c r="H101" s="36"/>
       <c r="I101" s="5"/>
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
@@ -3916,18 +3912,18 @@
       <c r="O101" s="6"/>
     </row>
     <row r="102" spans="1:15" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="20"/>
-      <c r="B102" s="24"/>
-      <c r="C102" s="22"/>
-      <c r="D102" s="22"/>
+      <c r="A102" s="45"/>
+      <c r="B102" s="39"/>
+      <c r="C102" s="44"/>
+      <c r="D102" s="44"/>
       <c r="E102" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="F102" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="G102" s="22"/>
-      <c r="H102" s="39"/>
+        <v>100</v>
+      </c>
+      <c r="F102" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="G102" s="44"/>
+      <c r="H102" s="36"/>
       <c r="I102" s="5"/>
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
@@ -3937,18 +3933,18 @@
       <c r="O102" s="6"/>
     </row>
     <row r="103" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A103" s="20"/>
-      <c r="B103" s="24"/>
-      <c r="C103" s="22"/>
-      <c r="D103" s="22"/>
+      <c r="A103" s="45"/>
+      <c r="B103" s="39"/>
+      <c r="C103" s="44"/>
+      <c r="D103" s="44"/>
       <c r="E103" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="F103" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="G103" s="22"/>
-      <c r="H103" s="39"/>
+        <v>78</v>
+      </c>
+      <c r="F103" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="G103" s="44"/>
+      <c r="H103" s="36"/>
       <c r="I103" s="5"/>
       <c r="J103" s="5"/>
       <c r="K103" s="5"/>
@@ -3958,29 +3954,29 @@
       <c r="O103" s="6"/>
     </row>
     <row r="104" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A104" s="20">
+      <c r="A104" s="45">
         <v>26</v>
       </c>
-      <c r="B104" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="C104" s="22" t="s">
+      <c r="B104" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="C104" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="D104" s="22" t="s">
-        <v>62</v>
+      <c r="D104" s="44" t="s">
+        <v>61</v>
       </c>
       <c r="E104" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F104" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="G104" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="H104" s="39" t="s">
-        <v>99</v>
+        <v>63</v>
+      </c>
+      <c r="F104" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G104" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="H104" s="36" t="s">
+        <v>98</v>
       </c>
       <c r="I104" s="5"/>
       <c r="J104" s="5"/>
@@ -3991,18 +3987,18 @@
       <c r="O104" s="6"/>
     </row>
     <row r="105" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="A105" s="20"/>
-      <c r="B105" s="24"/>
-      <c r="C105" s="22"/>
-      <c r="D105" s="22"/>
+      <c r="A105" s="45"/>
+      <c r="B105" s="39"/>
+      <c r="C105" s="44"/>
+      <c r="D105" s="44"/>
       <c r="E105" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="F105" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="G105" s="22"/>
-      <c r="H105" s="39"/>
+        <v>76</v>
+      </c>
+      <c r="F105" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="G105" s="44"/>
+      <c r="H105" s="36"/>
       <c r="I105" s="5"/>
       <c r="J105" s="5"/>
       <c r="K105" s="5"/>
@@ -4012,18 +4008,18 @@
       <c r="O105" s="6"/>
     </row>
     <row r="106" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="A106" s="20"/>
-      <c r="B106" s="24"/>
-      <c r="C106" s="22"/>
-      <c r="D106" s="22"/>
+      <c r="A106" s="45"/>
+      <c r="B106" s="39"/>
+      <c r="C106" s="44"/>
+      <c r="D106" s="44"/>
       <c r="E106" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="F106" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="F106" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="G106" s="22"/>
-      <c r="H106" s="39"/>
+      <c r="G106" s="44"/>
+      <c r="H106" s="36"/>
       <c r="I106" s="5"/>
       <c r="J106" s="5"/>
       <c r="K106" s="5"/>
@@ -4033,18 +4029,18 @@
       <c r="O106" s="6"/>
     </row>
     <row r="107" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A107" s="20"/>
-      <c r="B107" s="24"/>
-      <c r="C107" s="22"/>
-      <c r="D107" s="22"/>
+      <c r="A107" s="45"/>
+      <c r="B107" s="39"/>
+      <c r="C107" s="44"/>
+      <c r="D107" s="44"/>
       <c r="E107" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="F107" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="G107" s="22"/>
-      <c r="H107" s="39"/>
+        <v>78</v>
+      </c>
+      <c r="F107" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="G107" s="44"/>
+      <c r="H107" s="36"/>
       <c r="I107" s="5"/>
       <c r="J107" s="5"/>
       <c r="K107" s="5"/>
@@ -4054,29 +4050,29 @@
       <c r="O107" s="6"/>
     </row>
     <row r="108" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="25">
+      <c r="A108" s="43">
         <v>27</v>
       </c>
-      <c r="B108" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="C108" s="22" t="s">
+      <c r="B108" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="C108" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="D108" s="22" t="s">
-        <v>62</v>
+      <c r="D108" s="44" t="s">
+        <v>61</v>
       </c>
       <c r="E108" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F108" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="G108" s="37" t="s">
-        <v>215</v>
-      </c>
-      <c r="H108" s="48" t="s">
-        <v>108</v>
+        <v>63</v>
+      </c>
+      <c r="F108" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G108" s="48" t="s">
+        <v>214</v>
+      </c>
+      <c r="H108" s="28" t="s">
+        <v>107</v>
       </c>
       <c r="I108" s="6"/>
       <c r="J108" s="6"/>
@@ -4087,18 +4083,18 @@
       <c r="O108" s="6"/>
     </row>
     <row r="109" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="A109" s="25"/>
-      <c r="B109" s="24"/>
-      <c r="C109" s="22"/>
-      <c r="D109" s="22"/>
+      <c r="A109" s="43"/>
+      <c r="B109" s="39"/>
+      <c r="C109" s="44"/>
+      <c r="D109" s="44"/>
       <c r="E109" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="F109" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="G109" s="37"/>
-      <c r="H109" s="48"/>
+        <v>76</v>
+      </c>
+      <c r="F109" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="G109" s="48"/>
+      <c r="H109" s="28"/>
       <c r="I109" s="6"/>
       <c r="J109" s="6"/>
       <c r="K109" s="6"/>
@@ -4108,18 +4104,18 @@
       <c r="O109" s="6"/>
     </row>
     <row r="110" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="25"/>
-      <c r="B110" s="24"/>
-      <c r="C110" s="22"/>
-      <c r="D110" s="22"/>
+      <c r="A110" s="43"/>
+      <c r="B110" s="39"/>
+      <c r="C110" s="44"/>
+      <c r="D110" s="44"/>
       <c r="E110" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="F110" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="F110" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="G110" s="37"/>
-      <c r="H110" s="48"/>
+      <c r="G110" s="48"/>
+      <c r="H110" s="28"/>
       <c r="I110" s="6"/>
       <c r="J110" s="6"/>
       <c r="K110" s="6"/>
@@ -4129,18 +4125,18 @@
       <c r="O110" s="6"/>
     </row>
     <row r="111" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A111" s="25"/>
-      <c r="B111" s="24"/>
-      <c r="C111" s="22"/>
-      <c r="D111" s="22"/>
+      <c r="A111" s="43"/>
+      <c r="B111" s="39"/>
+      <c r="C111" s="44"/>
+      <c r="D111" s="44"/>
       <c r="E111" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="F111" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="G111" s="37"/>
-      <c r="H111" s="48"/>
+        <v>108</v>
+      </c>
+      <c r="F111" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="G111" s="48"/>
+      <c r="H111" s="28"/>
       <c r="I111" s="6"/>
       <c r="J111" s="6"/>
       <c r="K111" s="6"/>
@@ -4150,18 +4146,18 @@
       <c r="O111" s="6"/>
     </row>
     <row r="112" spans="1:15" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A112" s="25"/>
-      <c r="B112" s="24"/>
-      <c r="C112" s="22"/>
-      <c r="D112" s="22"/>
+      <c r="A112" s="43"/>
+      <c r="B112" s="39"/>
+      <c r="C112" s="44"/>
+      <c r="D112" s="44"/>
       <c r="E112" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="F112" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="F112" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="G112" s="37"/>
-      <c r="H112" s="48"/>
+      <c r="G112" s="48"/>
+      <c r="H112" s="28"/>
       <c r="I112" s="6"/>
       <c r="J112" s="6"/>
       <c r="K112" s="6"/>
@@ -4171,29 +4167,29 @@
       <c r="O112" s="6"/>
     </row>
     <row r="113" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="25">
+      <c r="A113" s="43">
         <v>28</v>
       </c>
-      <c r="B113" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="C113" s="22" t="s">
+      <c r="B113" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="C113" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="D113" s="22" t="s">
-        <v>62</v>
+      <c r="D113" s="44" t="s">
+        <v>61</v>
       </c>
       <c r="E113" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F113" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="G113" s="37" t="s">
-        <v>215</v>
-      </c>
-      <c r="H113" s="48" t="s">
-        <v>113</v>
+        <v>63</v>
+      </c>
+      <c r="F113" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G113" s="48" t="s">
+        <v>214</v>
+      </c>
+      <c r="H113" s="28" t="s">
+        <v>112</v>
       </c>
       <c r="I113" s="6"/>
       <c r="J113" s="6"/>
@@ -4204,18 +4200,18 @@
       <c r="O113" s="6"/>
     </row>
     <row r="114" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="A114" s="25"/>
-      <c r="B114" s="24"/>
-      <c r="C114" s="22"/>
-      <c r="D114" s="22"/>
+      <c r="A114" s="43"/>
+      <c r="B114" s="39"/>
+      <c r="C114" s="44"/>
+      <c r="D114" s="44"/>
       <c r="E114" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="F114" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="G114" s="37"/>
-      <c r="H114" s="48"/>
+        <v>76</v>
+      </c>
+      <c r="F114" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="G114" s="48"/>
+      <c r="H114" s="28"/>
       <c r="I114" s="6"/>
       <c r="J114" s="6"/>
       <c r="K114" s="6"/>
@@ -4225,18 +4221,18 @@
       <c r="O114" s="6"/>
     </row>
     <row r="115" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="A115" s="25"/>
-      <c r="B115" s="24"/>
-      <c r="C115" s="22"/>
-      <c r="D115" s="22"/>
+      <c r="A115" s="43"/>
+      <c r="B115" s="39"/>
+      <c r="C115" s="44"/>
+      <c r="D115" s="44"/>
       <c r="E115" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="F115" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="F115" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G115" s="37"/>
-      <c r="H115" s="48"/>
+      <c r="G115" s="48"/>
+      <c r="H115" s="28"/>
       <c r="I115" s="6"/>
       <c r="J115" s="6"/>
       <c r="K115" s="6"/>
@@ -4246,18 +4242,18 @@
       <c r="O115" s="6"/>
     </row>
     <row r="116" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A116" s="25"/>
-      <c r="B116" s="24"/>
-      <c r="C116" s="22"/>
-      <c r="D116" s="22"/>
+      <c r="A116" s="43"/>
+      <c r="B116" s="39"/>
+      <c r="C116" s="44"/>
+      <c r="D116" s="44"/>
       <c r="E116" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="F116" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="G116" s="37"/>
-      <c r="H116" s="48"/>
+        <v>108</v>
+      </c>
+      <c r="F116" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="G116" s="48"/>
+      <c r="H116" s="28"/>
       <c r="I116" s="6"/>
       <c r="J116" s="6"/>
       <c r="K116" s="6"/>
@@ -4267,18 +4263,18 @@
       <c r="O116" s="6"/>
     </row>
     <row r="117" spans="1:15" ht="126" x14ac:dyDescent="0.25">
-      <c r="A117" s="25"/>
-      <c r="B117" s="24"/>
-      <c r="C117" s="22"/>
-      <c r="D117" s="22"/>
+      <c r="A117" s="43"/>
+      <c r="B117" s="39"/>
+      <c r="C117" s="44"/>
+      <c r="D117" s="44"/>
       <c r="E117" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="F117" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="G117" s="37"/>
-      <c r="H117" s="48"/>
+        <v>106</v>
+      </c>
+      <c r="F117" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="G117" s="48"/>
+      <c r="H117" s="28"/>
       <c r="I117" s="6"/>
       <c r="J117" s="6"/>
       <c r="K117" s="6"/>
@@ -4288,29 +4284,29 @@
       <c r="O117" s="6"/>
     </row>
     <row r="118" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A118" s="27">
+      <c r="A118" s="37">
         <v>29</v>
       </c>
-      <c r="B118" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="C118" s="26" t="s">
+      <c r="B118" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="C118" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="D118" s="26" t="s">
-        <v>62</v>
+      <c r="D118" s="41" t="s">
+        <v>61</v>
       </c>
       <c r="E118" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F118" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="F118" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G118" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="H118" s="28" t="s">
         <v>66</v>
-      </c>
-      <c r="G118" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="H118" s="48" t="s">
-        <v>67</v>
       </c>
       <c r="I118" s="7"/>
       <c r="J118" s="7"/>
@@ -4321,18 +4317,18 @@
       <c r="O118" s="7"/>
     </row>
     <row r="119" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A119" s="27"/>
-      <c r="B119" s="24"/>
-      <c r="C119" s="26"/>
-      <c r="D119" s="26"/>
+      <c r="A119" s="37"/>
+      <c r="B119" s="39"/>
+      <c r="C119" s="41"/>
+      <c r="D119" s="41"/>
       <c r="E119" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="F119" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="G119" s="26"/>
-      <c r="H119" s="48"/>
+        <v>114</v>
+      </c>
+      <c r="F119" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="G119" s="41"/>
+      <c r="H119" s="28"/>
       <c r="I119" s="7"/>
       <c r="J119" s="7"/>
       <c r="K119" s="7"/>
@@ -4342,18 +4338,18 @@
       <c r="O119" s="7"/>
     </row>
     <row r="120" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="A120" s="27"/>
-      <c r="B120" s="24"/>
-      <c r="C120" s="26"/>
-      <c r="D120" s="26"/>
+      <c r="A120" s="37"/>
+      <c r="B120" s="39"/>
+      <c r="C120" s="41"/>
+      <c r="D120" s="41"/>
       <c r="E120" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="F120" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="G120" s="26"/>
-      <c r="H120" s="48"/>
+        <v>115</v>
+      </c>
+      <c r="F120" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="G120" s="41"/>
+      <c r="H120" s="28"/>
       <c r="I120" s="7"/>
       <c r="J120" s="7"/>
       <c r="K120" s="7"/>
@@ -4363,29 +4359,29 @@
       <c r="O120" s="7"/>
     </row>
     <row r="121" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A121" s="27">
+      <c r="A121" s="37">
         <v>30</v>
       </c>
-      <c r="B121" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="C121" s="26" t="s">
+      <c r="B121" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="C121" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="D121" s="26" t="s">
-        <v>62</v>
+      <c r="D121" s="41" t="s">
+        <v>61</v>
       </c>
       <c r="E121" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F121" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="G121" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="H121" s="48" t="s">
-        <v>122</v>
+        <v>63</v>
+      </c>
+      <c r="F121" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G121" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="H121" s="28" t="s">
+        <v>121</v>
       </c>
       <c r="I121" s="7"/>
       <c r="J121" s="7"/>
@@ -4396,18 +4392,18 @@
       <c r="O121" s="7"/>
     </row>
     <row r="122" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A122" s="27"/>
-      <c r="B122" s="24"/>
-      <c r="C122" s="26"/>
-      <c r="D122" s="26"/>
+      <c r="A122" s="37"/>
+      <c r="B122" s="39"/>
+      <c r="C122" s="41"/>
+      <c r="D122" s="41"/>
       <c r="E122" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="F122" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="G122" s="26"/>
-      <c r="H122" s="48"/>
+        <v>114</v>
+      </c>
+      <c r="F122" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="G122" s="41"/>
+      <c r="H122" s="28"/>
       <c r="I122" s="7"/>
       <c r="J122" s="7"/>
       <c r="K122" s="7"/>
@@ -4417,18 +4413,18 @@
       <c r="O122" s="7"/>
     </row>
     <row r="123" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="A123" s="27"/>
-      <c r="B123" s="24"/>
-      <c r="C123" s="26"/>
-      <c r="D123" s="26"/>
+      <c r="A123" s="37"/>
+      <c r="B123" s="39"/>
+      <c r="C123" s="41"/>
+      <c r="D123" s="41"/>
       <c r="E123" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="F123" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="F123" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="G123" s="26"/>
-      <c r="H123" s="48"/>
+      <c r="G123" s="41"/>
+      <c r="H123" s="28"/>
       <c r="I123" s="7"/>
       <c r="J123" s="7"/>
       <c r="K123" s="7"/>
@@ -4438,18 +4434,18 @@
       <c r="O123" s="7"/>
     </row>
     <row r="124" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A124" s="27"/>
-      <c r="B124" s="24"/>
-      <c r="C124" s="26"/>
-      <c r="D124" s="26"/>
+      <c r="A124" s="37"/>
+      <c r="B124" s="39"/>
+      <c r="C124" s="41"/>
+      <c r="D124" s="41"/>
       <c r="E124" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="F124" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="F124" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="G124" s="26"/>
-      <c r="H124" s="48"/>
+      <c r="G124" s="41"/>
+      <c r="H124" s="28"/>
       <c r="I124" s="7"/>
       <c r="J124" s="7"/>
       <c r="K124" s="7"/>
@@ -4459,29 +4455,29 @@
       <c r="O124" s="7"/>
     </row>
     <row r="125" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A125" s="27">
+      <c r="A125" s="37">
         <v>31</v>
       </c>
-      <c r="B125" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="C125" s="26" t="s">
+      <c r="B125" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="C125" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="D125" s="26" t="s">
-        <v>62</v>
+      <c r="D125" s="41" t="s">
+        <v>61</v>
       </c>
       <c r="E125" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F125" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="G125" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="H125" s="48" t="s">
-        <v>129</v>
+        <v>63</v>
+      </c>
+      <c r="F125" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G125" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="H125" s="28" t="s">
+        <v>128</v>
       </c>
       <c r="I125" s="7"/>
       <c r="J125" s="7"/>
@@ -4492,18 +4488,18 @@
       <c r="O125" s="7"/>
     </row>
     <row r="126" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A126" s="27"/>
-      <c r="B126" s="24"/>
-      <c r="C126" s="26"/>
-      <c r="D126" s="26"/>
+      <c r="A126" s="37"/>
+      <c r="B126" s="39"/>
+      <c r="C126" s="41"/>
+      <c r="D126" s="41"/>
       <c r="E126" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="F126" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="G126" s="26"/>
-      <c r="H126" s="48"/>
+        <v>114</v>
+      </c>
+      <c r="F126" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="G126" s="41"/>
+      <c r="H126" s="28"/>
       <c r="I126" s="7"/>
       <c r="J126" s="7"/>
       <c r="K126" s="7"/>
@@ -4513,18 +4509,18 @@
       <c r="O126" s="7"/>
     </row>
     <row r="127" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A127" s="27"/>
-      <c r="B127" s="24"/>
-      <c r="C127" s="26"/>
-      <c r="D127" s="26"/>
+      <c r="A127" s="37"/>
+      <c r="B127" s="39"/>
+      <c r="C127" s="41"/>
+      <c r="D127" s="41"/>
       <c r="E127" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F127" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="F127" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="G127" s="26"/>
-      <c r="H127" s="48"/>
+      <c r="G127" s="41"/>
+      <c r="H127" s="28"/>
       <c r="I127" s="7"/>
       <c r="J127" s="7"/>
       <c r="K127" s="7"/>
@@ -4534,18 +4530,18 @@
       <c r="O127" s="7"/>
     </row>
     <row r="128" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A128" s="27"/>
-      <c r="B128" s="24"/>
-      <c r="C128" s="26"/>
-      <c r="D128" s="26"/>
+      <c r="A128" s="37"/>
+      <c r="B128" s="39"/>
+      <c r="C128" s="41"/>
+      <c r="D128" s="41"/>
       <c r="E128" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="F128" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="G128" s="26"/>
-      <c r="H128" s="48"/>
+        <v>125</v>
+      </c>
+      <c r="F128" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="G128" s="41"/>
+      <c r="H128" s="28"/>
       <c r="I128" s="7"/>
       <c r="J128" s="7"/>
       <c r="K128" s="7"/>
@@ -4555,18 +4551,18 @@
       <c r="O128" s="7"/>
     </row>
     <row r="129" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A129" s="27"/>
-      <c r="B129" s="24"/>
-      <c r="C129" s="26"/>
-      <c r="D129" s="26"/>
+      <c r="A129" s="37"/>
+      <c r="B129" s="39"/>
+      <c r="C129" s="41"/>
+      <c r="D129" s="41"/>
       <c r="E129" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="F129" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="G129" s="26"/>
-      <c r="H129" s="48"/>
+        <v>126</v>
+      </c>
+      <c r="F129" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G129" s="41"/>
+      <c r="H129" s="28"/>
       <c r="I129" s="7"/>
       <c r="J129" s="7"/>
       <c r="K129" s="7"/>
@@ -4576,29 +4572,29 @@
       <c r="O129" s="7"/>
     </row>
     <row r="130" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A130" s="27">
+      <c r="A130" s="37">
         <v>32</v>
       </c>
-      <c r="B130" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="C130" s="26" t="s">
+      <c r="B130" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="C130" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="D130" s="26" t="s">
-        <v>62</v>
+      <c r="D130" s="41" t="s">
+        <v>61</v>
       </c>
       <c r="E130" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F130" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="G130" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="H130" s="48" t="s">
-        <v>133</v>
+        <v>63</v>
+      </c>
+      <c r="F130" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G130" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="H130" s="28" t="s">
+        <v>132</v>
       </c>
       <c r="I130" s="7"/>
       <c r="J130" s="7"/>
@@ -4609,18 +4605,18 @@
       <c r="O130" s="7"/>
     </row>
     <row r="131" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A131" s="27"/>
-      <c r="B131" s="24"/>
-      <c r="C131" s="26"/>
-      <c r="D131" s="26"/>
+      <c r="A131" s="37"/>
+      <c r="B131" s="39"/>
+      <c r="C131" s="41"/>
+      <c r="D131" s="41"/>
       <c r="E131" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="F131" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="G131" s="26"/>
-      <c r="H131" s="48"/>
+        <v>114</v>
+      </c>
+      <c r="F131" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="G131" s="41"/>
+      <c r="H131" s="28"/>
       <c r="I131" s="7"/>
       <c r="J131" s="7"/>
       <c r="K131" s="7"/>
@@ -4630,18 +4626,18 @@
       <c r="O131" s="7"/>
     </row>
     <row r="132" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A132" s="27"/>
-      <c r="B132" s="24"/>
-      <c r="C132" s="26"/>
-      <c r="D132" s="26"/>
+      <c r="A132" s="37"/>
+      <c r="B132" s="39"/>
+      <c r="C132" s="41"/>
+      <c r="D132" s="41"/>
       <c r="E132" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F132" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="F132" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="G132" s="26"/>
-      <c r="H132" s="48"/>
+      <c r="G132" s="41"/>
+      <c r="H132" s="28"/>
       <c r="I132" s="7"/>
       <c r="J132" s="7"/>
       <c r="K132" s="7"/>
@@ -4651,18 +4647,18 @@
       <c r="O132" s="7"/>
     </row>
     <row r="133" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A133" s="27"/>
-      <c r="B133" s="24"/>
-      <c r="C133" s="26"/>
-      <c r="D133" s="26"/>
+      <c r="A133" s="37"/>
+      <c r="B133" s="39"/>
+      <c r="C133" s="41"/>
+      <c r="D133" s="41"/>
       <c r="E133" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="F133" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="F133" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="G133" s="26"/>
-      <c r="H133" s="48"/>
+      <c r="G133" s="41"/>
+      <c r="H133" s="28"/>
       <c r="I133" s="7"/>
       <c r="J133" s="7"/>
       <c r="K133" s="7"/>
@@ -4672,18 +4668,18 @@
       <c r="O133" s="7"/>
     </row>
     <row r="134" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A134" s="27"/>
-      <c r="B134" s="24"/>
-      <c r="C134" s="26"/>
-      <c r="D134" s="26"/>
+      <c r="A134" s="37"/>
+      <c r="B134" s="39"/>
+      <c r="C134" s="41"/>
+      <c r="D134" s="41"/>
       <c r="E134" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="F134" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="G134" s="26"/>
-      <c r="H134" s="48"/>
+        <v>126</v>
+      </c>
+      <c r="F134" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="G134" s="41"/>
+      <c r="H134" s="28"/>
       <c r="I134" s="7"/>
       <c r="J134" s="7"/>
       <c r="K134" s="7"/>
@@ -4693,29 +4689,29 @@
       <c r="O134" s="7"/>
     </row>
     <row r="135" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A135" s="27">
+      <c r="A135" s="37">
         <v>33</v>
       </c>
-      <c r="B135" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="C135" s="26" t="s">
+      <c r="B135" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="C135" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="D135" s="26" t="s">
-        <v>62</v>
+      <c r="D135" s="41" t="s">
+        <v>61</v>
       </c>
       <c r="E135" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F135" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="G135" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="H135" s="48" t="s">
-        <v>137</v>
+        <v>63</v>
+      </c>
+      <c r="F135" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G135" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="H135" s="28" t="s">
+        <v>136</v>
       </c>
       <c r="I135" s="7"/>
       <c r="J135" s="7"/>
@@ -4726,18 +4722,18 @@
       <c r="O135" s="7"/>
     </row>
     <row r="136" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A136" s="27"/>
-      <c r="B136" s="24"/>
-      <c r="C136" s="26"/>
-      <c r="D136" s="26"/>
+      <c r="A136" s="37"/>
+      <c r="B136" s="39"/>
+      <c r="C136" s="41"/>
+      <c r="D136" s="41"/>
       <c r="E136" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="F136" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="G136" s="26"/>
-      <c r="H136" s="48"/>
+        <v>114</v>
+      </c>
+      <c r="F136" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="G136" s="41"/>
+      <c r="H136" s="28"/>
       <c r="I136" s="7"/>
       <c r="J136" s="7"/>
       <c r="K136" s="7"/>
@@ -4747,18 +4743,18 @@
       <c r="O136" s="7"/>
     </row>
     <row r="137" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A137" s="27"/>
-      <c r="B137" s="24"/>
-      <c r="C137" s="26"/>
-      <c r="D137" s="26"/>
+      <c r="A137" s="37"/>
+      <c r="B137" s="39"/>
+      <c r="C137" s="41"/>
+      <c r="D137" s="41"/>
       <c r="E137" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F137" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="F137" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="G137" s="26"/>
-      <c r="H137" s="48"/>
+      <c r="G137" s="41"/>
+      <c r="H137" s="28"/>
       <c r="I137" s="7"/>
       <c r="J137" s="7"/>
       <c r="K137" s="7"/>
@@ -4768,18 +4764,18 @@
       <c r="O137" s="7"/>
     </row>
     <row r="138" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A138" s="27"/>
-      <c r="B138" s="24"/>
-      <c r="C138" s="26"/>
-      <c r="D138" s="26"/>
+      <c r="A138" s="37"/>
+      <c r="B138" s="39"/>
+      <c r="C138" s="41"/>
+      <c r="D138" s="41"/>
       <c r="E138" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="F138" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="F138" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="G138" s="26"/>
-      <c r="H138" s="48"/>
+      <c r="G138" s="41"/>
+      <c r="H138" s="28"/>
       <c r="I138" s="7"/>
       <c r="J138" s="7"/>
       <c r="K138" s="7"/>
@@ -4789,18 +4785,18 @@
       <c r="O138" s="7"/>
     </row>
     <row r="139" spans="1:15" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A139" s="27"/>
-      <c r="B139" s="24"/>
-      <c r="C139" s="26"/>
-      <c r="D139" s="26"/>
+      <c r="A139" s="37"/>
+      <c r="B139" s="39"/>
+      <c r="C139" s="41"/>
+      <c r="D139" s="41"/>
       <c r="E139" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="F139" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="G139" s="26"/>
-      <c r="H139" s="48"/>
+        <v>126</v>
+      </c>
+      <c r="F139" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="G139" s="41"/>
+      <c r="H139" s="28"/>
       <c r="I139" s="7"/>
       <c r="J139" s="7"/>
       <c r="K139" s="7"/>
@@ -4810,29 +4806,29 @@
       <c r="O139" s="7"/>
     </row>
     <row r="140" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A140" s="27">
+      <c r="A140" s="37">
         <v>33</v>
       </c>
-      <c r="B140" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="C140" s="26" t="s">
+      <c r="B140" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="C140" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="D140" s="26" t="s">
-        <v>62</v>
+      <c r="D140" s="41" t="s">
+        <v>61</v>
       </c>
       <c r="E140" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F140" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="G140" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="H140" s="48" t="s">
-        <v>141</v>
+        <v>63</v>
+      </c>
+      <c r="F140" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G140" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="H140" s="28" t="s">
+        <v>140</v>
       </c>
       <c r="I140" s="7"/>
       <c r="J140" s="7"/>
@@ -4843,18 +4839,18 @@
       <c r="O140" s="7"/>
     </row>
     <row r="141" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A141" s="27"/>
-      <c r="B141" s="24"/>
-      <c r="C141" s="26"/>
-      <c r="D141" s="26"/>
+      <c r="A141" s="37"/>
+      <c r="B141" s="39"/>
+      <c r="C141" s="41"/>
+      <c r="D141" s="41"/>
       <c r="E141" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="F141" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="G141" s="26"/>
-      <c r="H141" s="48"/>
+        <v>114</v>
+      </c>
+      <c r="F141" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="G141" s="41"/>
+      <c r="H141" s="28"/>
       <c r="I141" s="7"/>
       <c r="J141" s="7"/>
       <c r="K141" s="7"/>
@@ -4864,18 +4860,18 @@
       <c r="O141" s="7"/>
     </row>
     <row r="142" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A142" s="27"/>
-      <c r="B142" s="24"/>
-      <c r="C142" s="26"/>
-      <c r="D142" s="26"/>
+      <c r="A142" s="37"/>
+      <c r="B142" s="39"/>
+      <c r="C142" s="41"/>
+      <c r="D142" s="41"/>
       <c r="E142" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F142" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="F142" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="G142" s="26"/>
-      <c r="H142" s="48"/>
+      <c r="G142" s="41"/>
+      <c r="H142" s="28"/>
       <c r="I142" s="7"/>
       <c r="J142" s="7"/>
       <c r="K142" s="7"/>
@@ -4885,18 +4881,18 @@
       <c r="O142" s="7"/>
     </row>
     <row r="143" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A143" s="27"/>
-      <c r="B143" s="24"/>
-      <c r="C143" s="26"/>
-      <c r="D143" s="26"/>
+      <c r="A143" s="37"/>
+      <c r="B143" s="39"/>
+      <c r="C143" s="41"/>
+      <c r="D143" s="41"/>
       <c r="E143" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="F143" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="F143" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="G143" s="26"/>
-      <c r="H143" s="48"/>
+      <c r="G143" s="41"/>
+      <c r="H143" s="28"/>
       <c r="I143" s="7"/>
       <c r="J143" s="7"/>
       <c r="K143" s="7"/>
@@ -4906,18 +4902,18 @@
       <c r="O143" s="7"/>
     </row>
     <row r="144" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A144" s="27"/>
-      <c r="B144" s="24"/>
-      <c r="C144" s="26"/>
-      <c r="D144" s="26"/>
+      <c r="A144" s="37"/>
+      <c r="B144" s="39"/>
+      <c r="C144" s="41"/>
+      <c r="D144" s="41"/>
       <c r="E144" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="F144" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="G144" s="26"/>
-      <c r="H144" s="48"/>
+        <v>126</v>
+      </c>
+      <c r="F144" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="G144" s="41"/>
+      <c r="H144" s="28"/>
       <c r="I144" s="7"/>
       <c r="J144" s="7"/>
       <c r="K144" s="7"/>
@@ -4927,29 +4923,29 @@
       <c r="O144" s="7"/>
     </row>
     <row r="145" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A145" s="27">
+      <c r="A145" s="37">
         <v>34</v>
       </c>
-      <c r="B145" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="C145" s="26" t="s">
+      <c r="B145" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="C145" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="D145" s="26" t="s">
-        <v>62</v>
+      <c r="D145" s="41" t="s">
+        <v>61</v>
       </c>
       <c r="E145" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F145" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="G145" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="H145" s="48" t="s">
-        <v>144</v>
+        <v>63</v>
+      </c>
+      <c r="F145" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G145" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="H145" s="28" t="s">
+        <v>143</v>
       </c>
       <c r="I145" s="7"/>
       <c r="J145" s="7"/>
@@ -4960,18 +4956,18 @@
       <c r="O145" s="7"/>
     </row>
     <row r="146" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A146" s="27"/>
-      <c r="B146" s="24"/>
-      <c r="C146" s="26"/>
-      <c r="D146" s="26"/>
+      <c r="A146" s="37"/>
+      <c r="B146" s="39"/>
+      <c r="C146" s="41"/>
+      <c r="D146" s="41"/>
       <c r="E146" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="F146" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="G146" s="26"/>
-      <c r="H146" s="48"/>
+        <v>114</v>
+      </c>
+      <c r="F146" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="G146" s="41"/>
+      <c r="H146" s="28"/>
       <c r="I146" s="7"/>
       <c r="J146" s="7"/>
       <c r="K146" s="7"/>
@@ -4981,18 +4977,18 @@
       <c r="O146" s="7"/>
     </row>
     <row r="147" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A147" s="27"/>
-      <c r="B147" s="24"/>
-      <c r="C147" s="26"/>
-      <c r="D147" s="26"/>
+      <c r="A147" s="37"/>
+      <c r="B147" s="39"/>
+      <c r="C147" s="41"/>
+      <c r="D147" s="41"/>
       <c r="E147" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F147" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="F147" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="G147" s="26"/>
-      <c r="H147" s="48"/>
+      <c r="G147" s="41"/>
+      <c r="H147" s="28"/>
       <c r="I147" s="7"/>
       <c r="J147" s="7"/>
       <c r="K147" s="7"/>
@@ -5002,18 +4998,18 @@
       <c r="O147" s="7"/>
     </row>
     <row r="148" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A148" s="27"/>
-      <c r="B148" s="24"/>
-      <c r="C148" s="26"/>
-      <c r="D148" s="26"/>
+      <c r="A148" s="37"/>
+      <c r="B148" s="39"/>
+      <c r="C148" s="41"/>
+      <c r="D148" s="41"/>
       <c r="E148" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="F148" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="G148" s="26"/>
-      <c r="H148" s="48"/>
+        <v>144</v>
+      </c>
+      <c r="F148" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="G148" s="41"/>
+      <c r="H148" s="28"/>
       <c r="I148" s="7"/>
       <c r="J148" s="7"/>
       <c r="K148" s="7"/>
@@ -5023,18 +5019,18 @@
       <c r="O148" s="7"/>
     </row>
     <row r="149" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="A149" s="27"/>
-      <c r="B149" s="24"/>
-      <c r="C149" s="26"/>
-      <c r="D149" s="26"/>
+      <c r="A149" s="37"/>
+      <c r="B149" s="39"/>
+      <c r="C149" s="41"/>
+      <c r="D149" s="41"/>
       <c r="E149" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="F149" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="G149" s="26"/>
-      <c r="H149" s="48"/>
+        <v>126</v>
+      </c>
+      <c r="F149" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="G149" s="41"/>
+      <c r="H149" s="28"/>
       <c r="I149" s="7"/>
       <c r="J149" s="7"/>
       <c r="K149" s="7"/>
@@ -5044,29 +5040,29 @@
       <c r="O149" s="7"/>
     </row>
     <row r="150" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A150" s="27">
+      <c r="A150" s="37">
         <v>35</v>
       </c>
-      <c r="B150" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="C150" s="26" t="s">
+      <c r="B150" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="C150" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="D150" s="26" t="s">
-        <v>62</v>
+      <c r="D150" s="41" t="s">
+        <v>61</v>
       </c>
       <c r="E150" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F150" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="G150" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="H150" s="48" t="s">
-        <v>150</v>
+        <v>63</v>
+      </c>
+      <c r="F150" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G150" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="H150" s="28" t="s">
+        <v>149</v>
       </c>
       <c r="I150" s="7"/>
       <c r="J150" s="7"/>
@@ -5077,18 +5073,18 @@
       <c r="O150" s="7"/>
     </row>
     <row r="151" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A151" s="27"/>
-      <c r="B151" s="24"/>
-      <c r="C151" s="26"/>
-      <c r="D151" s="26"/>
+      <c r="A151" s="37"/>
+      <c r="B151" s="39"/>
+      <c r="C151" s="41"/>
+      <c r="D151" s="41"/>
       <c r="E151" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="F151" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="G151" s="26"/>
-      <c r="H151" s="48"/>
+        <v>114</v>
+      </c>
+      <c r="F151" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="G151" s="41"/>
+      <c r="H151" s="28"/>
       <c r="I151" s="7"/>
       <c r="J151" s="7"/>
       <c r="K151" s="7"/>
@@ -5098,18 +5094,18 @@
       <c r="O151" s="7"/>
     </row>
     <row r="152" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="A152" s="27"/>
-      <c r="B152" s="24"/>
-      <c r="C152" s="26"/>
-      <c r="D152" s="26"/>
+      <c r="A152" s="37"/>
+      <c r="B152" s="39"/>
+      <c r="C152" s="41"/>
+      <c r="D152" s="41"/>
       <c r="E152" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="F152" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="G152" s="26"/>
-      <c r="H152" s="48"/>
+        <v>146</v>
+      </c>
+      <c r="F152" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="G152" s="41"/>
+      <c r="H152" s="28"/>
       <c r="I152" s="7"/>
       <c r="J152" s="7"/>
       <c r="K152" s="7"/>
@@ -5119,18 +5115,18 @@
       <c r="O152" s="7"/>
     </row>
     <row r="153" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A153" s="27"/>
-      <c r="B153" s="24"/>
-      <c r="C153" s="26"/>
-      <c r="D153" s="26"/>
+      <c r="A153" s="37"/>
+      <c r="B153" s="39"/>
+      <c r="C153" s="41"/>
+      <c r="D153" s="41"/>
       <c r="E153" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="F153" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="F153" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="G153" s="26"/>
-      <c r="H153" s="48"/>
+      <c r="G153" s="41"/>
+      <c r="H153" s="28"/>
       <c r="I153" s="7"/>
       <c r="J153" s="7"/>
       <c r="K153" s="7"/>
@@ -5140,18 +5136,18 @@
       <c r="O153" s="7"/>
     </row>
     <row r="154" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A154" s="27"/>
-      <c r="B154" s="24"/>
-      <c r="C154" s="26"/>
-      <c r="D154" s="26"/>
+      <c r="A154" s="37"/>
+      <c r="B154" s="39"/>
+      <c r="C154" s="41"/>
+      <c r="D154" s="41"/>
       <c r="E154" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="F154" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="G154" s="26"/>
-      <c r="H154" s="48"/>
+        <v>126</v>
+      </c>
+      <c r="F154" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="G154" s="41"/>
+      <c r="H154" s="28"/>
       <c r="I154" s="7"/>
       <c r="J154" s="7"/>
       <c r="K154" s="7"/>
@@ -5161,29 +5157,29 @@
       <c r="O154" s="7"/>
     </row>
     <row r="155" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A155" s="27">
+      <c r="A155" s="37">
         <v>36</v>
       </c>
-      <c r="B155" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="C155" s="26" t="s">
+      <c r="B155" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="C155" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="D155" s="26" t="s">
-        <v>62</v>
+      <c r="D155" s="41" t="s">
+        <v>61</v>
       </c>
       <c r="E155" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F155" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="G155" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="H155" s="48" t="s">
-        <v>153</v>
+        <v>63</v>
+      </c>
+      <c r="F155" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G155" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="H155" s="28" t="s">
+        <v>152</v>
       </c>
       <c r="I155" s="7"/>
       <c r="J155" s="7"/>
@@ -5194,18 +5190,18 @@
       <c r="O155" s="7"/>
     </row>
     <row r="156" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A156" s="27"/>
-      <c r="B156" s="24"/>
-      <c r="C156" s="26"/>
-      <c r="D156" s="26"/>
+      <c r="A156" s="37"/>
+      <c r="B156" s="39"/>
+      <c r="C156" s="41"/>
+      <c r="D156" s="41"/>
       <c r="E156" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="F156" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="G156" s="26"/>
-      <c r="H156" s="48"/>
+        <v>114</v>
+      </c>
+      <c r="F156" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="G156" s="41"/>
+      <c r="H156" s="28"/>
       <c r="I156" s="7"/>
       <c r="J156" s="7"/>
       <c r="K156" s="7"/>
@@ -5215,18 +5211,18 @@
       <c r="O156" s="7"/>
     </row>
     <row r="157" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="A157" s="27"/>
-      <c r="B157" s="24"/>
-      <c r="C157" s="26"/>
-      <c r="D157" s="26"/>
+      <c r="A157" s="37"/>
+      <c r="B157" s="39"/>
+      <c r="C157" s="41"/>
+      <c r="D157" s="41"/>
       <c r="E157" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="F157" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="G157" s="26"/>
-      <c r="H157" s="48"/>
+        <v>146</v>
+      </c>
+      <c r="F157" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="G157" s="41"/>
+      <c r="H157" s="28"/>
       <c r="I157" s="7"/>
       <c r="J157" s="7"/>
       <c r="K157" s="7"/>
@@ -5236,18 +5232,18 @@
       <c r="O157" s="7"/>
     </row>
     <row r="158" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A158" s="27"/>
-      <c r="B158" s="24"/>
-      <c r="C158" s="26"/>
-      <c r="D158" s="26"/>
+      <c r="A158" s="37"/>
+      <c r="B158" s="39"/>
+      <c r="C158" s="41"/>
+      <c r="D158" s="41"/>
       <c r="E158" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="F158" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="G158" s="26"/>
-      <c r="H158" s="48"/>
+        <v>151</v>
+      </c>
+      <c r="F158" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="G158" s="41"/>
+      <c r="H158" s="28"/>
       <c r="I158" s="7"/>
       <c r="J158" s="7"/>
       <c r="K158" s="7"/>
@@ -5257,18 +5253,18 @@
       <c r="O158" s="7"/>
     </row>
     <row r="159" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="A159" s="27"/>
-      <c r="B159" s="24"/>
-      <c r="C159" s="26"/>
-      <c r="D159" s="26"/>
+      <c r="A159" s="37"/>
+      <c r="B159" s="39"/>
+      <c r="C159" s="41"/>
+      <c r="D159" s="41"/>
       <c r="E159" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="F159" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="G159" s="26"/>
-      <c r="H159" s="48"/>
+        <v>126</v>
+      </c>
+      <c r="F159" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="G159" s="41"/>
+      <c r="H159" s="28"/>
       <c r="I159" s="7"/>
       <c r="J159" s="7"/>
       <c r="K159" s="7"/>
@@ -5278,29 +5274,29 @@
       <c r="O159" s="7"/>
     </row>
     <row r="160" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A160" s="27">
+      <c r="A160" s="37">
         <v>37</v>
       </c>
-      <c r="B160" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="C160" s="26" t="s">
+      <c r="B160" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="C160" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="D160" s="26" t="s">
-        <v>62</v>
+      <c r="D160" s="41" t="s">
+        <v>61</v>
       </c>
       <c r="E160" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F160" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="G160" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="H160" s="48" t="s">
-        <v>168</v>
+        <v>63</v>
+      </c>
+      <c r="F160" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G160" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="H160" s="28" t="s">
+        <v>167</v>
       </c>
       <c r="I160" s="7"/>
       <c r="J160" s="7"/>
@@ -5311,18 +5307,18 @@
       <c r="O160" s="7"/>
     </row>
     <row r="161" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A161" s="27"/>
-      <c r="B161" s="24"/>
-      <c r="C161" s="26"/>
-      <c r="D161" s="26"/>
+      <c r="A161" s="37"/>
+      <c r="B161" s="39"/>
+      <c r="C161" s="41"/>
+      <c r="D161" s="41"/>
       <c r="E161" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="F161" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="G161" s="26"/>
-      <c r="H161" s="48"/>
+        <v>114</v>
+      </c>
+      <c r="F161" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="G161" s="41"/>
+      <c r="H161" s="28"/>
       <c r="I161" s="7"/>
       <c r="J161" s="7"/>
       <c r="K161" s="7"/>
@@ -5332,18 +5328,18 @@
       <c r="O161" s="7"/>
     </row>
     <row r="162" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A162" s="27"/>
-      <c r="B162" s="24"/>
-      <c r="C162" s="26"/>
-      <c r="D162" s="26"/>
+      <c r="A162" s="37"/>
+      <c r="B162" s="39"/>
+      <c r="C162" s="41"/>
+      <c r="D162" s="41"/>
       <c r="E162" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="F162" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="F162" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="G162" s="26"/>
-      <c r="H162" s="48"/>
+      <c r="G162" s="41"/>
+      <c r="H162" s="28"/>
       <c r="I162" s="7"/>
       <c r="J162" s="7"/>
       <c r="K162" s="7"/>
@@ -5353,18 +5349,18 @@
       <c r="O162" s="7"/>
     </row>
     <row r="163" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A163" s="27"/>
-      <c r="B163" s="24"/>
-      <c r="C163" s="26"/>
-      <c r="D163" s="26"/>
+      <c r="A163" s="37"/>
+      <c r="B163" s="39"/>
+      <c r="C163" s="41"/>
+      <c r="D163" s="41"/>
       <c r="E163" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="F163" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="F163" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="G163" s="26"/>
-      <c r="H163" s="48"/>
+      <c r="G163" s="41"/>
+      <c r="H163" s="28"/>
       <c r="I163" s="7"/>
       <c r="J163" s="7"/>
       <c r="K163" s="7"/>
@@ -5374,18 +5370,18 @@
       <c r="O163" s="7"/>
     </row>
     <row r="164" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A164" s="27"/>
-      <c r="B164" s="24"/>
-      <c r="C164" s="26"/>
-      <c r="D164" s="26"/>
+      <c r="A164" s="37"/>
+      <c r="B164" s="39"/>
+      <c r="C164" s="41"/>
+      <c r="D164" s="41"/>
       <c r="E164" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="F164" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="F164" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="G164" s="26"/>
-      <c r="H164" s="48"/>
+      <c r="G164" s="41"/>
+      <c r="H164" s="28"/>
       <c r="I164" s="7"/>
       <c r="J164" s="7"/>
       <c r="K164" s="7"/>
@@ -5395,18 +5391,18 @@
       <c r="O164" s="7"/>
     </row>
     <row r="165" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A165" s="27"/>
-      <c r="B165" s="24"/>
-      <c r="C165" s="26"/>
-      <c r="D165" s="26"/>
+      <c r="A165" s="37"/>
+      <c r="B165" s="39"/>
+      <c r="C165" s="41"/>
+      <c r="D165" s="41"/>
       <c r="E165" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="F165" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="F165" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="G165" s="26"/>
-      <c r="H165" s="48"/>
+      <c r="G165" s="41"/>
+      <c r="H165" s="28"/>
       <c r="I165" s="7"/>
       <c r="J165" s="7"/>
       <c r="K165" s="7"/>
@@ -5416,18 +5412,18 @@
       <c r="O165" s="7"/>
     </row>
     <row r="166" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A166" s="27"/>
-      <c r="B166" s="24"/>
-      <c r="C166" s="26"/>
-      <c r="D166" s="26"/>
+      <c r="A166" s="37"/>
+      <c r="B166" s="39"/>
+      <c r="C166" s="41"/>
+      <c r="D166" s="41"/>
       <c r="E166" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="F166" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="F166" s="34" t="s">
-        <v>164</v>
-      </c>
-      <c r="G166" s="26"/>
-      <c r="H166" s="48"/>
+      <c r="G166" s="41"/>
+      <c r="H166" s="28"/>
       <c r="I166" s="7"/>
       <c r="J166" s="7"/>
       <c r="K166" s="7"/>
@@ -5437,18 +5433,18 @@
       <c r="O166" s="7"/>
     </row>
     <row r="167" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A167" s="27"/>
-      <c r="B167" s="24"/>
-      <c r="C167" s="26"/>
-      <c r="D167" s="26"/>
+      <c r="A167" s="37"/>
+      <c r="B167" s="39"/>
+      <c r="C167" s="41"/>
+      <c r="D167" s="41"/>
       <c r="E167" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="F167" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="F167" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="G167" s="26"/>
-      <c r="H167" s="48"/>
+      <c r="G167" s="41"/>
+      <c r="H167" s="28"/>
       <c r="I167" s="7"/>
       <c r="J167" s="7"/>
       <c r="K167" s="7"/>
@@ -5458,18 +5454,18 @@
       <c r="O167" s="7"/>
     </row>
     <row r="168" spans="1:15" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A168" s="27"/>
-      <c r="B168" s="24"/>
-      <c r="C168" s="26"/>
-      <c r="D168" s="26"/>
+      <c r="A168" s="37"/>
+      <c r="B168" s="39"/>
+      <c r="C168" s="41"/>
+      <c r="D168" s="41"/>
       <c r="E168" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="F168" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="F168" s="34" t="s">
-        <v>168</v>
-      </c>
-      <c r="G168" s="26"/>
-      <c r="H168" s="48"/>
+      <c r="G168" s="41"/>
+      <c r="H168" s="28"/>
       <c r="I168" s="7"/>
       <c r="J168" s="7"/>
       <c r="K168" s="7"/>
@@ -5479,29 +5475,29 @@
       <c r="O168" s="7"/>
     </row>
     <row r="169" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A169" s="27">
+      <c r="A169" s="37">
         <v>38</v>
       </c>
-      <c r="B169" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="C169" s="26" t="s">
+      <c r="B169" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="C169" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="D169" s="26" t="s">
-        <v>62</v>
+      <c r="D169" s="41" t="s">
+        <v>61</v>
       </c>
       <c r="E169" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F169" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="G169" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="H169" s="48" t="s">
-        <v>172</v>
+        <v>63</v>
+      </c>
+      <c r="F169" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G169" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="H169" s="28" t="s">
+        <v>171</v>
       </c>
       <c r="I169" s="7"/>
       <c r="J169" s="7"/>
@@ -5512,18 +5508,18 @@
       <c r="O169" s="7"/>
     </row>
     <row r="170" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A170" s="27"/>
-      <c r="B170" s="24"/>
-      <c r="C170" s="26"/>
-      <c r="D170" s="26"/>
+      <c r="A170" s="37"/>
+      <c r="B170" s="39"/>
+      <c r="C170" s="41"/>
+      <c r="D170" s="41"/>
       <c r="E170" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="F170" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="G170" s="26"/>
-      <c r="H170" s="48"/>
+        <v>114</v>
+      </c>
+      <c r="F170" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="G170" s="41"/>
+      <c r="H170" s="28"/>
       <c r="I170" s="7"/>
       <c r="J170" s="7"/>
       <c r="K170" s="7"/>
@@ -5533,18 +5529,18 @@
       <c r="O170" s="7"/>
     </row>
     <row r="171" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A171" s="27"/>
-      <c r="B171" s="24"/>
-      <c r="C171" s="26"/>
-      <c r="D171" s="26"/>
+      <c r="A171" s="37"/>
+      <c r="B171" s="39"/>
+      <c r="C171" s="41"/>
+      <c r="D171" s="41"/>
       <c r="E171" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="F171" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="F171" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="G171" s="26"/>
-      <c r="H171" s="48"/>
+      <c r="G171" s="41"/>
+      <c r="H171" s="28"/>
       <c r="I171" s="7"/>
       <c r="J171" s="7"/>
       <c r="K171" s="7"/>
@@ -5554,18 +5550,18 @@
       <c r="O171" s="7"/>
     </row>
     <row r="172" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A172" s="27"/>
-      <c r="B172" s="24"/>
-      <c r="C172" s="26"/>
-      <c r="D172" s="26"/>
+      <c r="A172" s="37"/>
+      <c r="B172" s="39"/>
+      <c r="C172" s="41"/>
+      <c r="D172" s="41"/>
       <c r="E172" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="F172" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="F172" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="G172" s="26"/>
-      <c r="H172" s="48"/>
+      <c r="G172" s="41"/>
+      <c r="H172" s="28"/>
       <c r="I172" s="7"/>
       <c r="J172" s="7"/>
       <c r="K172" s="7"/>
@@ -5575,18 +5571,18 @@
       <c r="O172" s="7"/>
     </row>
     <row r="173" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A173" s="27"/>
-      <c r="B173" s="24"/>
-      <c r="C173" s="26"/>
-      <c r="D173" s="26"/>
+      <c r="A173" s="37"/>
+      <c r="B173" s="39"/>
+      <c r="C173" s="41"/>
+      <c r="D173" s="41"/>
       <c r="E173" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="F173" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="F173" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="G173" s="26"/>
-      <c r="H173" s="48"/>
+      <c r="G173" s="41"/>
+      <c r="H173" s="28"/>
       <c r="I173" s="7"/>
       <c r="J173" s="7"/>
       <c r="K173" s="7"/>
@@ -5596,18 +5592,18 @@
       <c r="O173" s="7"/>
     </row>
     <row r="174" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A174" s="27"/>
-      <c r="B174" s="24"/>
-      <c r="C174" s="26"/>
-      <c r="D174" s="26"/>
+      <c r="A174" s="37"/>
+      <c r="B174" s="39"/>
+      <c r="C174" s="41"/>
+      <c r="D174" s="41"/>
       <c r="E174" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="F174" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="F174" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="G174" s="26"/>
-      <c r="H174" s="48"/>
+      <c r="G174" s="41"/>
+      <c r="H174" s="28"/>
       <c r="I174" s="7"/>
       <c r="J174" s="7"/>
       <c r="K174" s="7"/>
@@ -5617,18 +5613,18 @@
       <c r="O174" s="7"/>
     </row>
     <row r="175" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A175" s="27"/>
-      <c r="B175" s="24"/>
-      <c r="C175" s="26"/>
-      <c r="D175" s="26"/>
+      <c r="A175" s="37"/>
+      <c r="B175" s="39"/>
+      <c r="C175" s="41"/>
+      <c r="D175" s="41"/>
       <c r="E175" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="F175" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="F175" s="34" t="s">
-        <v>164</v>
-      </c>
-      <c r="G175" s="26"/>
-      <c r="H175" s="48"/>
+      <c r="G175" s="41"/>
+      <c r="H175" s="28"/>
       <c r="I175" s="7"/>
       <c r="J175" s="7"/>
       <c r="K175" s="7"/>
@@ -5638,18 +5634,18 @@
       <c r="O175" s="7"/>
     </row>
     <row r="176" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A176" s="27"/>
-      <c r="B176" s="24"/>
-      <c r="C176" s="26"/>
-      <c r="D176" s="26"/>
+      <c r="A176" s="37"/>
+      <c r="B176" s="39"/>
+      <c r="C176" s="41"/>
+      <c r="D176" s="41"/>
       <c r="E176" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="F176" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="F176" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="G176" s="26"/>
-      <c r="H176" s="48"/>
+      <c r="G176" s="41"/>
+      <c r="H176" s="28"/>
       <c r="I176" s="7"/>
       <c r="J176" s="7"/>
       <c r="K176" s="7"/>
@@ -5659,18 +5655,18 @@
       <c r="O176" s="7"/>
     </row>
     <row r="177" spans="1:15" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A177" s="27"/>
-      <c r="B177" s="24"/>
-      <c r="C177" s="26"/>
-      <c r="D177" s="26"/>
+      <c r="A177" s="37"/>
+      <c r="B177" s="39"/>
+      <c r="C177" s="41"/>
+      <c r="D177" s="41"/>
       <c r="E177" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="F177" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="G177" s="26"/>
-      <c r="H177" s="48"/>
+        <v>166</v>
+      </c>
+      <c r="F177" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="G177" s="41"/>
+      <c r="H177" s="28"/>
       <c r="I177" s="7"/>
       <c r="J177" s="7"/>
       <c r="K177" s="7"/>
@@ -5680,29 +5676,29 @@
       <c r="O177" s="7"/>
     </row>
     <row r="178" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A178" s="27">
+      <c r="A178" s="37">
         <v>39</v>
       </c>
-      <c r="B178" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="C178" s="26" t="s">
+      <c r="B178" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="C178" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="D178" s="26" t="s">
-        <v>62</v>
+      <c r="D178" s="41" t="s">
+        <v>61</v>
       </c>
       <c r="E178" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F178" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="G178" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="H178" s="48" t="s">
-        <v>172</v>
+        <v>63</v>
+      </c>
+      <c r="F178" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G178" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="H178" s="28" t="s">
+        <v>171</v>
       </c>
       <c r="I178" s="7"/>
       <c r="J178" s="7"/>
@@ -5713,18 +5709,18 @@
       <c r="O178" s="7"/>
     </row>
     <row r="179" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A179" s="27"/>
-      <c r="B179" s="24"/>
-      <c r="C179" s="26"/>
-      <c r="D179" s="26"/>
+      <c r="A179" s="37"/>
+      <c r="B179" s="39"/>
+      <c r="C179" s="41"/>
+      <c r="D179" s="41"/>
       <c r="E179" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="F179" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="G179" s="26"/>
-      <c r="H179" s="48"/>
+        <v>114</v>
+      </c>
+      <c r="F179" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="G179" s="41"/>
+      <c r="H179" s="28"/>
       <c r="I179" s="7"/>
       <c r="J179" s="7"/>
       <c r="K179" s="7"/>
@@ -5734,18 +5730,18 @@
       <c r="O179" s="7"/>
     </row>
     <row r="180" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A180" s="27"/>
-      <c r="B180" s="24"/>
-      <c r="C180" s="26"/>
-      <c r="D180" s="26"/>
+      <c r="A180" s="37"/>
+      <c r="B180" s="39"/>
+      <c r="C180" s="41"/>
+      <c r="D180" s="41"/>
       <c r="E180" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="F180" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="F180" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="G180" s="26"/>
-      <c r="H180" s="48"/>
+      <c r="G180" s="41"/>
+      <c r="H180" s="28"/>
       <c r="I180" s="7"/>
       <c r="J180" s="7"/>
       <c r="K180" s="7"/>
@@ -5755,18 +5751,18 @@
       <c r="O180" s="7"/>
     </row>
     <row r="181" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A181" s="27"/>
-      <c r="B181" s="24"/>
-      <c r="C181" s="26"/>
-      <c r="D181" s="26"/>
+      <c r="A181" s="37"/>
+      <c r="B181" s="39"/>
+      <c r="C181" s="41"/>
+      <c r="D181" s="41"/>
       <c r="E181" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="F181" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="F181" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="G181" s="26"/>
-      <c r="H181" s="48"/>
+      <c r="G181" s="41"/>
+      <c r="H181" s="28"/>
       <c r="I181" s="7"/>
       <c r="J181" s="7"/>
       <c r="K181" s="7"/>
@@ -5776,18 +5772,18 @@
       <c r="O181" s="7"/>
     </row>
     <row r="182" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A182" s="27"/>
-      <c r="B182" s="24"/>
-      <c r="C182" s="26"/>
-      <c r="D182" s="26"/>
+      <c r="A182" s="37"/>
+      <c r="B182" s="39"/>
+      <c r="C182" s="41"/>
+      <c r="D182" s="41"/>
       <c r="E182" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="F182" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="G182" s="26"/>
-      <c r="H182" s="48"/>
+        <v>173</v>
+      </c>
+      <c r="F182" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="G182" s="41"/>
+      <c r="H182" s="28"/>
       <c r="I182" s="7"/>
       <c r="J182" s="7"/>
       <c r="K182" s="7"/>
@@ -5797,18 +5793,18 @@
       <c r="O182" s="7"/>
     </row>
     <row r="183" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A183" s="27"/>
-      <c r="B183" s="24"/>
-      <c r="C183" s="26"/>
-      <c r="D183" s="26"/>
+      <c r="A183" s="37"/>
+      <c r="B183" s="39"/>
+      <c r="C183" s="41"/>
+      <c r="D183" s="41"/>
       <c r="E183" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="F183" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="F183" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="G183" s="26"/>
-      <c r="H183" s="48"/>
+      <c r="G183" s="41"/>
+      <c r="H183" s="28"/>
       <c r="I183" s="7"/>
       <c r="J183" s="7"/>
       <c r="K183" s="7"/>
@@ -5818,18 +5814,18 @@
       <c r="O183" s="7"/>
     </row>
     <row r="184" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A184" s="27"/>
-      <c r="B184" s="24"/>
-      <c r="C184" s="26"/>
-      <c r="D184" s="26"/>
+      <c r="A184" s="37"/>
+      <c r="B184" s="39"/>
+      <c r="C184" s="41"/>
+      <c r="D184" s="41"/>
       <c r="E184" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="F184" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="F184" s="34" t="s">
-        <v>164</v>
-      </c>
-      <c r="G184" s="26"/>
-      <c r="H184" s="48"/>
+      <c r="G184" s="41"/>
+      <c r="H184" s="28"/>
       <c r="I184" s="7"/>
       <c r="J184" s="7"/>
       <c r="K184" s="7"/>
@@ -5839,18 +5835,18 @@
       <c r="O184" s="7"/>
     </row>
     <row r="185" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A185" s="27"/>
-      <c r="B185" s="24"/>
-      <c r="C185" s="26"/>
-      <c r="D185" s="26"/>
+      <c r="A185" s="37"/>
+      <c r="B185" s="39"/>
+      <c r="C185" s="41"/>
+      <c r="D185" s="41"/>
       <c r="E185" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="F185" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="F185" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="G185" s="26"/>
-      <c r="H185" s="48"/>
+      <c r="G185" s="41"/>
+      <c r="H185" s="28"/>
       <c r="I185" s="7"/>
       <c r="J185" s="7"/>
       <c r="K185" s="7"/>
@@ -5860,18 +5856,18 @@
       <c r="O185" s="7"/>
     </row>
     <row r="186" spans="1:15" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A186" s="27"/>
-      <c r="B186" s="24"/>
-      <c r="C186" s="26"/>
-      <c r="D186" s="26"/>
+      <c r="A186" s="37"/>
+      <c r="B186" s="39"/>
+      <c r="C186" s="41"/>
+      <c r="D186" s="41"/>
       <c r="E186" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="F186" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="G186" s="26"/>
-      <c r="H186" s="48"/>
+        <v>166</v>
+      </c>
+      <c r="F186" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="G186" s="41"/>
+      <c r="H186" s="28"/>
       <c r="I186" s="7"/>
       <c r="J186" s="7"/>
       <c r="K186" s="7"/>
@@ -5881,29 +5877,29 @@
       <c r="O186" s="7"/>
     </row>
     <row r="187" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A187" s="27">
+      <c r="A187" s="37">
         <v>40</v>
       </c>
-      <c r="B187" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="C187" s="26" t="s">
+      <c r="B187" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="C187" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="D187" s="26" t="s">
-        <v>62</v>
+      <c r="D187" s="41" t="s">
+        <v>61</v>
       </c>
       <c r="E187" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F187" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="G187" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="H187" s="48" t="s">
-        <v>172</v>
+        <v>63</v>
+      </c>
+      <c r="F187" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G187" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="H187" s="28" t="s">
+        <v>171</v>
       </c>
       <c r="I187" s="7"/>
       <c r="J187" s="7"/>
@@ -5914,18 +5910,18 @@
       <c r="O187" s="7"/>
     </row>
     <row r="188" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A188" s="27"/>
-      <c r="B188" s="24"/>
-      <c r="C188" s="26"/>
-      <c r="D188" s="26"/>
+      <c r="A188" s="37"/>
+      <c r="B188" s="39"/>
+      <c r="C188" s="41"/>
+      <c r="D188" s="41"/>
       <c r="E188" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="F188" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="G188" s="26"/>
-      <c r="H188" s="48"/>
+        <v>114</v>
+      </c>
+      <c r="F188" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="G188" s="41"/>
+      <c r="H188" s="28"/>
       <c r="I188" s="7"/>
       <c r="J188" s="7"/>
       <c r="K188" s="7"/>
@@ -5935,18 +5931,18 @@
       <c r="O188" s="7"/>
     </row>
     <row r="189" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A189" s="27"/>
-      <c r="B189" s="24"/>
-      <c r="C189" s="26"/>
-      <c r="D189" s="26"/>
+      <c r="A189" s="37"/>
+      <c r="B189" s="39"/>
+      <c r="C189" s="41"/>
+      <c r="D189" s="41"/>
       <c r="E189" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="F189" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="F189" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="G189" s="26"/>
-      <c r="H189" s="48"/>
+      <c r="G189" s="41"/>
+      <c r="H189" s="28"/>
       <c r="I189" s="7"/>
       <c r="J189" s="7"/>
       <c r="K189" s="7"/>
@@ -5956,18 +5952,18 @@
       <c r="O189" s="7"/>
     </row>
     <row r="190" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A190" s="27"/>
-      <c r="B190" s="24"/>
-      <c r="C190" s="26"/>
-      <c r="D190" s="26"/>
+      <c r="A190" s="37"/>
+      <c r="B190" s="39"/>
+      <c r="C190" s="41"/>
+      <c r="D190" s="41"/>
       <c r="E190" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="F190" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="F190" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="G190" s="26"/>
-      <c r="H190" s="48"/>
+      <c r="G190" s="41"/>
+      <c r="H190" s="28"/>
       <c r="I190" s="7"/>
       <c r="J190" s="7"/>
       <c r="K190" s="7"/>
@@ -5977,18 +5973,18 @@
       <c r="O190" s="7"/>
     </row>
     <row r="191" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A191" s="27"/>
-      <c r="B191" s="24"/>
-      <c r="C191" s="26"/>
-      <c r="D191" s="26"/>
+      <c r="A191" s="37"/>
+      <c r="B191" s="39"/>
+      <c r="C191" s="41"/>
+      <c r="D191" s="41"/>
       <c r="E191" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="F191" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="F191" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="G191" s="26"/>
-      <c r="H191" s="48"/>
+      <c r="G191" s="41"/>
+      <c r="H191" s="28"/>
       <c r="I191" s="7"/>
       <c r="J191" s="7"/>
       <c r="K191" s="7"/>
@@ -5998,18 +5994,18 @@
       <c r="O191" s="7"/>
     </row>
     <row r="192" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A192" s="27"/>
-      <c r="B192" s="24"/>
-      <c r="C192" s="26"/>
-      <c r="D192" s="26"/>
+      <c r="A192" s="37"/>
+      <c r="B192" s="39"/>
+      <c r="C192" s="41"/>
+      <c r="D192" s="41"/>
       <c r="E192" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="F192" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="F192" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="G192" s="26"/>
-      <c r="H192" s="48"/>
+      <c r="G192" s="41"/>
+      <c r="H192" s="28"/>
       <c r="I192" s="7"/>
       <c r="J192" s="7"/>
       <c r="K192" s="7"/>
@@ -6019,18 +6015,18 @@
       <c r="O192" s="7"/>
     </row>
     <row r="193" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A193" s="27"/>
-      <c r="B193" s="24"/>
-      <c r="C193" s="26"/>
-      <c r="D193" s="26"/>
+      <c r="A193" s="37"/>
+      <c r="B193" s="39"/>
+      <c r="C193" s="41"/>
+      <c r="D193" s="41"/>
       <c r="E193" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="F193" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="F193" s="34" t="s">
-        <v>164</v>
-      </c>
-      <c r="G193" s="26"/>
-      <c r="H193" s="48"/>
+      <c r="G193" s="41"/>
+      <c r="H193" s="28"/>
       <c r="I193" s="7"/>
       <c r="J193" s="7"/>
       <c r="K193" s="7"/>
@@ -6040,18 +6036,18 @@
       <c r="O193" s="7"/>
     </row>
     <row r="194" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A194" s="27"/>
-      <c r="B194" s="24"/>
-      <c r="C194" s="26"/>
-      <c r="D194" s="26"/>
+      <c r="A194" s="37"/>
+      <c r="B194" s="39"/>
+      <c r="C194" s="41"/>
+      <c r="D194" s="41"/>
       <c r="E194" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="F194" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="F194" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="G194" s="26"/>
-      <c r="H194" s="48"/>
+      <c r="G194" s="41"/>
+      <c r="H194" s="28"/>
       <c r="I194" s="7"/>
       <c r="J194" s="7"/>
       <c r="K194" s="7"/>
@@ -6061,18 +6057,18 @@
       <c r="O194" s="7"/>
     </row>
     <row r="195" spans="1:15" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A195" s="27"/>
-      <c r="B195" s="24"/>
-      <c r="C195" s="26"/>
-      <c r="D195" s="26"/>
+      <c r="A195" s="37"/>
+      <c r="B195" s="39"/>
+      <c r="C195" s="41"/>
+      <c r="D195" s="41"/>
       <c r="E195" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="F195" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="G195" s="26"/>
-      <c r="H195" s="48"/>
+        <v>166</v>
+      </c>
+      <c r="F195" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="G195" s="41"/>
+      <c r="H195" s="28"/>
       <c r="I195" s="7"/>
       <c r="J195" s="7"/>
       <c r="K195" s="7"/>
@@ -6082,29 +6078,29 @@
       <c r="O195" s="7"/>
     </row>
     <row r="196" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A196" s="27">
+      <c r="A196" s="37">
         <v>41</v>
       </c>
-      <c r="B196" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="C196" s="26" t="s">
+      <c r="B196" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="C196" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="D196" s="26" t="s">
-        <v>62</v>
+      <c r="D196" s="41" t="s">
+        <v>61</v>
       </c>
       <c r="E196" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F196" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="G196" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="H196" s="48" t="s">
-        <v>172</v>
+        <v>63</v>
+      </c>
+      <c r="F196" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G196" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="H196" s="28" t="s">
+        <v>171</v>
       </c>
       <c r="I196" s="7"/>
       <c r="J196" s="7"/>
@@ -6115,18 +6111,18 @@
       <c r="O196" s="7"/>
     </row>
     <row r="197" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A197" s="27"/>
-      <c r="B197" s="24"/>
-      <c r="C197" s="26"/>
-      <c r="D197" s="26"/>
+      <c r="A197" s="37"/>
+      <c r="B197" s="39"/>
+      <c r="C197" s="41"/>
+      <c r="D197" s="41"/>
       <c r="E197" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="F197" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="G197" s="26"/>
-      <c r="H197" s="48"/>
+        <v>114</v>
+      </c>
+      <c r="F197" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="G197" s="41"/>
+      <c r="H197" s="28"/>
       <c r="I197" s="7"/>
       <c r="J197" s="7"/>
       <c r="K197" s="7"/>
@@ -6136,18 +6132,18 @@
       <c r="O197" s="7"/>
     </row>
     <row r="198" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A198" s="27"/>
-      <c r="B198" s="24"/>
-      <c r="C198" s="26"/>
-      <c r="D198" s="26"/>
+      <c r="A198" s="37"/>
+      <c r="B198" s="39"/>
+      <c r="C198" s="41"/>
+      <c r="D198" s="41"/>
       <c r="E198" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="F198" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="F198" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="G198" s="26"/>
-      <c r="H198" s="48"/>
+      <c r="G198" s="41"/>
+      <c r="H198" s="28"/>
       <c r="I198" s="7"/>
       <c r="J198" s="7"/>
       <c r="K198" s="7"/>
@@ -6157,18 +6153,18 @@
       <c r="O198" s="7"/>
     </row>
     <row r="199" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A199" s="27"/>
-      <c r="B199" s="24"/>
-      <c r="C199" s="26"/>
-      <c r="D199" s="26"/>
+      <c r="A199" s="37"/>
+      <c r="B199" s="39"/>
+      <c r="C199" s="41"/>
+      <c r="D199" s="41"/>
       <c r="E199" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="F199" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="F199" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="G199" s="26"/>
-      <c r="H199" s="48"/>
+      <c r="G199" s="41"/>
+      <c r="H199" s="28"/>
       <c r="I199" s="7"/>
       <c r="J199" s="7"/>
       <c r="K199" s="7"/>
@@ -6178,18 +6174,18 @@
       <c r="O199" s="7"/>
     </row>
     <row r="200" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A200" s="27"/>
-      <c r="B200" s="24"/>
-      <c r="C200" s="26"/>
-      <c r="D200" s="26"/>
+      <c r="A200" s="37"/>
+      <c r="B200" s="39"/>
+      <c r="C200" s="41"/>
+      <c r="D200" s="41"/>
       <c r="E200" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="F200" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="F200" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="G200" s="26"/>
-      <c r="H200" s="48"/>
+      <c r="G200" s="41"/>
+      <c r="H200" s="28"/>
       <c r="I200" s="7"/>
       <c r="J200" s="7"/>
       <c r="K200" s="7"/>
@@ -6199,18 +6195,18 @@
       <c r="O200" s="7"/>
     </row>
     <row r="201" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A201" s="27"/>
-      <c r="B201" s="24"/>
-      <c r="C201" s="26"/>
-      <c r="D201" s="26"/>
+      <c r="A201" s="37"/>
+      <c r="B201" s="39"/>
+      <c r="C201" s="41"/>
+      <c r="D201" s="41"/>
       <c r="E201" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="F201" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="F201" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="G201" s="26"/>
-      <c r="H201" s="48"/>
+      <c r="G201" s="41"/>
+      <c r="H201" s="28"/>
       <c r="I201" s="7"/>
       <c r="J201" s="7"/>
       <c r="K201" s="7"/>
@@ -6220,18 +6216,18 @@
       <c r="O201" s="7"/>
     </row>
     <row r="202" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A202" s="27"/>
-      <c r="B202" s="24"/>
-      <c r="C202" s="26"/>
-      <c r="D202" s="26"/>
+      <c r="A202" s="37"/>
+      <c r="B202" s="39"/>
+      <c r="C202" s="41"/>
+      <c r="D202" s="41"/>
       <c r="E202" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="F202" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="G202" s="26"/>
-      <c r="H202" s="48"/>
+        <v>178</v>
+      </c>
+      <c r="F202" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="G202" s="41"/>
+      <c r="H202" s="28"/>
       <c r="I202" s="7"/>
       <c r="J202" s="7"/>
       <c r="K202" s="7"/>
@@ -6241,18 +6237,18 @@
       <c r="O202" s="7"/>
     </row>
     <row r="203" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A203" s="27"/>
-      <c r="B203" s="24"/>
-      <c r="C203" s="26"/>
-      <c r="D203" s="26"/>
+      <c r="A203" s="37"/>
+      <c r="B203" s="39"/>
+      <c r="C203" s="41"/>
+      <c r="D203" s="41"/>
       <c r="E203" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="F203" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="F203" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="G203" s="26"/>
-      <c r="H203" s="48"/>
+      <c r="G203" s="41"/>
+      <c r="H203" s="28"/>
       <c r="I203" s="7"/>
       <c r="J203" s="7"/>
       <c r="K203" s="7"/>
@@ -6262,18 +6258,18 @@
       <c r="O203" s="7"/>
     </row>
     <row r="204" spans="1:15" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A204" s="27"/>
-      <c r="B204" s="24"/>
-      <c r="C204" s="26"/>
-      <c r="D204" s="26"/>
+      <c r="A204" s="37"/>
+      <c r="B204" s="39"/>
+      <c r="C204" s="41"/>
+      <c r="D204" s="41"/>
       <c r="E204" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="F204" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="G204" s="26"/>
-      <c r="H204" s="48"/>
+        <v>166</v>
+      </c>
+      <c r="F204" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="G204" s="41"/>
+      <c r="H204" s="28"/>
       <c r="I204" s="7"/>
       <c r="J204" s="7"/>
       <c r="K204" s="7"/>
@@ -6283,29 +6279,29 @@
       <c r="O204" s="7"/>
     </row>
     <row r="205" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A205" s="27">
+      <c r="A205" s="37">
         <v>42</v>
       </c>
-      <c r="B205" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="C205" s="26" t="s">
+      <c r="B205" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="C205" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="D205" s="26" t="s">
-        <v>62</v>
+      <c r="D205" s="41" t="s">
+        <v>61</v>
       </c>
       <c r="E205" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F205" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="G205" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="H205" s="48" t="s">
-        <v>172</v>
+        <v>63</v>
+      </c>
+      <c r="F205" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G205" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="H205" s="28" t="s">
+        <v>171</v>
       </c>
       <c r="I205" s="7"/>
       <c r="J205" s="7"/>
@@ -6316,18 +6312,18 @@
       <c r="O205" s="7"/>
     </row>
     <row r="206" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A206" s="27"/>
-      <c r="B206" s="24"/>
-      <c r="C206" s="26"/>
-      <c r="D206" s="26"/>
+      <c r="A206" s="37"/>
+      <c r="B206" s="39"/>
+      <c r="C206" s="41"/>
+      <c r="D206" s="41"/>
       <c r="E206" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="F206" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="G206" s="26"/>
-      <c r="H206" s="48"/>
+        <v>114</v>
+      </c>
+      <c r="F206" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="G206" s="41"/>
+      <c r="H206" s="28"/>
       <c r="I206" s="7"/>
       <c r="J206" s="7"/>
       <c r="K206" s="7"/>
@@ -6337,18 +6333,18 @@
       <c r="O206" s="7"/>
     </row>
     <row r="207" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A207" s="27"/>
-      <c r="B207" s="24"/>
-      <c r="C207" s="26"/>
-      <c r="D207" s="26"/>
+      <c r="A207" s="37"/>
+      <c r="B207" s="39"/>
+      <c r="C207" s="41"/>
+      <c r="D207" s="41"/>
       <c r="E207" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="F207" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="F207" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="G207" s="26"/>
-      <c r="H207" s="48"/>
+      <c r="G207" s="41"/>
+      <c r="H207" s="28"/>
       <c r="I207" s="7"/>
       <c r="J207" s="7"/>
       <c r="K207" s="7"/>
@@ -6358,18 +6354,18 @@
       <c r="O207" s="7"/>
     </row>
     <row r="208" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A208" s="27"/>
-      <c r="B208" s="24"/>
-      <c r="C208" s="26"/>
-      <c r="D208" s="26"/>
+      <c r="A208" s="37"/>
+      <c r="B208" s="39"/>
+      <c r="C208" s="41"/>
+      <c r="D208" s="41"/>
       <c r="E208" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="F208" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="F208" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="G208" s="26"/>
-      <c r="H208" s="48"/>
+      <c r="G208" s="41"/>
+      <c r="H208" s="28"/>
       <c r="I208" s="7"/>
       <c r="J208" s="7"/>
       <c r="K208" s="7"/>
@@ -6379,18 +6375,18 @@
       <c r="O208" s="7"/>
     </row>
     <row r="209" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A209" s="27"/>
-      <c r="B209" s="24"/>
-      <c r="C209" s="26"/>
-      <c r="D209" s="26"/>
+      <c r="A209" s="37"/>
+      <c r="B209" s="39"/>
+      <c r="C209" s="41"/>
+      <c r="D209" s="41"/>
       <c r="E209" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="F209" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="F209" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="G209" s="26"/>
-      <c r="H209" s="48"/>
+      <c r="G209" s="41"/>
+      <c r="H209" s="28"/>
       <c r="I209" s="7"/>
       <c r="J209" s="7"/>
       <c r="K209" s="7"/>
@@ -6400,18 +6396,18 @@
       <c r="O209" s="7"/>
     </row>
     <row r="210" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A210" s="27"/>
-      <c r="B210" s="24"/>
-      <c r="C210" s="26"/>
-      <c r="D210" s="26"/>
+      <c r="A210" s="37"/>
+      <c r="B210" s="39"/>
+      <c r="C210" s="41"/>
+      <c r="D210" s="41"/>
       <c r="E210" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="F210" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="F210" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="G210" s="26"/>
-      <c r="H210" s="48"/>
+      <c r="G210" s="41"/>
+      <c r="H210" s="28"/>
       <c r="I210" s="7"/>
       <c r="J210" s="7"/>
       <c r="K210" s="7"/>
@@ -6421,18 +6417,18 @@
       <c r="O210" s="7"/>
     </row>
     <row r="211" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A211" s="27"/>
-      <c r="B211" s="24"/>
-      <c r="C211" s="26"/>
-      <c r="D211" s="26"/>
+      <c r="A211" s="37"/>
+      <c r="B211" s="39"/>
+      <c r="C211" s="41"/>
+      <c r="D211" s="41"/>
       <c r="E211" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="F211" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="F211" s="34" t="s">
-        <v>164</v>
-      </c>
-      <c r="G211" s="26"/>
-      <c r="H211" s="48"/>
+      <c r="G211" s="41"/>
+      <c r="H211" s="28"/>
       <c r="I211" s="7"/>
       <c r="J211" s="7"/>
       <c r="K211" s="7"/>
@@ -6442,18 +6438,18 @@
       <c r="O211" s="7"/>
     </row>
     <row r="212" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A212" s="27"/>
-      <c r="B212" s="24"/>
-      <c r="C212" s="26"/>
-      <c r="D212" s="26"/>
+      <c r="A212" s="37"/>
+      <c r="B212" s="39"/>
+      <c r="C212" s="41"/>
+      <c r="D212" s="41"/>
       <c r="E212" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="F212" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="G212" s="26"/>
-      <c r="H212" s="48"/>
+        <v>180</v>
+      </c>
+      <c r="F212" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="G212" s="41"/>
+      <c r="H212" s="28"/>
       <c r="I212" s="7"/>
       <c r="J212" s="7"/>
       <c r="K212" s="7"/>
@@ -6463,18 +6459,18 @@
       <c r="O212" s="7"/>
     </row>
     <row r="213" spans="1:15" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A213" s="27"/>
-      <c r="B213" s="24"/>
-      <c r="C213" s="26"/>
-      <c r="D213" s="26"/>
+      <c r="A213" s="37"/>
+      <c r="B213" s="39"/>
+      <c r="C213" s="41"/>
+      <c r="D213" s="41"/>
       <c r="E213" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="F213" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="G213" s="26"/>
-      <c r="H213" s="48"/>
+        <v>166</v>
+      </c>
+      <c r="F213" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="G213" s="41"/>
+      <c r="H213" s="28"/>
       <c r="I213" s="7"/>
       <c r="J213" s="7"/>
       <c r="K213" s="7"/>
@@ -6484,29 +6480,29 @@
       <c r="O213" s="7"/>
     </row>
     <row r="214" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A214" s="27">
+      <c r="A214" s="37">
         <v>43</v>
       </c>
-      <c r="B214" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="C214" s="26" t="s">
+      <c r="B214" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="C214" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="D214" s="26" t="s">
-        <v>62</v>
+      <c r="D214" s="41" t="s">
+        <v>61</v>
       </c>
       <c r="E214" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F214" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="G214" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="H214" s="48" t="s">
-        <v>184</v>
+        <v>63</v>
+      </c>
+      <c r="F214" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G214" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="H214" s="28" t="s">
+        <v>183</v>
       </c>
       <c r="I214" s="7"/>
       <c r="J214" s="7"/>
@@ -6517,18 +6513,18 @@
       <c r="O214" s="7"/>
     </row>
     <row r="215" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A215" s="27"/>
-      <c r="B215" s="24"/>
-      <c r="C215" s="26"/>
-      <c r="D215" s="26"/>
+      <c r="A215" s="37"/>
+      <c r="B215" s="39"/>
+      <c r="C215" s="41"/>
+      <c r="D215" s="41"/>
       <c r="E215" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="F215" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="G215" s="26"/>
-      <c r="H215" s="48"/>
+        <v>114</v>
+      </c>
+      <c r="F215" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="G215" s="41"/>
+      <c r="H215" s="28"/>
       <c r="I215" s="7"/>
       <c r="J215" s="7"/>
       <c r="K215" s="7"/>
@@ -6538,18 +6534,18 @@
       <c r="O215" s="7"/>
     </row>
     <row r="216" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A216" s="27"/>
-      <c r="B216" s="24"/>
-      <c r="C216" s="26"/>
-      <c r="D216" s="26"/>
+      <c r="A216" s="37"/>
+      <c r="B216" s="39"/>
+      <c r="C216" s="41"/>
+      <c r="D216" s="41"/>
       <c r="E216" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="F216" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="F216" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="G216" s="26"/>
-      <c r="H216" s="48"/>
+      <c r="G216" s="41"/>
+      <c r="H216" s="28"/>
       <c r="I216" s="7"/>
       <c r="J216" s="7"/>
       <c r="K216" s="7"/>
@@ -6559,18 +6555,18 @@
       <c r="O216" s="7"/>
     </row>
     <row r="217" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A217" s="27"/>
-      <c r="B217" s="24"/>
-      <c r="C217" s="26"/>
-      <c r="D217" s="26"/>
+      <c r="A217" s="37"/>
+      <c r="B217" s="39"/>
+      <c r="C217" s="41"/>
+      <c r="D217" s="41"/>
       <c r="E217" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="F217" s="34" t="s">
-        <v>183</v>
-      </c>
-      <c r="G217" s="26"/>
-      <c r="H217" s="48"/>
+        <v>217</v>
+      </c>
+      <c r="F217" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="G217" s="41"/>
+      <c r="H217" s="28"/>
       <c r="I217" s="7"/>
       <c r="J217" s="7"/>
       <c r="K217" s="7"/>
@@ -6580,18 +6576,18 @@
       <c r="O217" s="7"/>
     </row>
     <row r="218" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A218" s="27"/>
-      <c r="B218" s="24"/>
-      <c r="C218" s="26"/>
-      <c r="D218" s="26"/>
+      <c r="A218" s="37"/>
+      <c r="B218" s="39"/>
+      <c r="C218" s="41"/>
+      <c r="D218" s="41"/>
       <c r="E218" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="F218" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="F218" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="G218" s="26"/>
-      <c r="H218" s="48"/>
+      <c r="G218" s="41"/>
+      <c r="H218" s="28"/>
       <c r="I218" s="7"/>
       <c r="J218" s="7"/>
       <c r="K218" s="7"/>
@@ -6601,18 +6597,18 @@
       <c r="O218" s="7"/>
     </row>
     <row r="219" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A219" s="27"/>
-      <c r="B219" s="24"/>
-      <c r="C219" s="26"/>
-      <c r="D219" s="26"/>
+      <c r="A219" s="37"/>
+      <c r="B219" s="39"/>
+      <c r="C219" s="41"/>
+      <c r="D219" s="41"/>
       <c r="E219" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="F219" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="F219" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="G219" s="26"/>
-      <c r="H219" s="48"/>
+      <c r="G219" s="41"/>
+      <c r="H219" s="28"/>
       <c r="I219" s="7"/>
       <c r="J219" s="7"/>
       <c r="K219" s="7"/>
@@ -6622,18 +6618,18 @@
       <c r="O219" s="7"/>
     </row>
     <row r="220" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A220" s="27"/>
-      <c r="B220" s="24"/>
-      <c r="C220" s="26"/>
-      <c r="D220" s="26"/>
+      <c r="A220" s="37"/>
+      <c r="B220" s="39"/>
+      <c r="C220" s="41"/>
+      <c r="D220" s="41"/>
       <c r="E220" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="F220" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="F220" s="34" t="s">
-        <v>164</v>
-      </c>
-      <c r="G220" s="26"/>
-      <c r="H220" s="48"/>
+      <c r="G220" s="41"/>
+      <c r="H220" s="28"/>
       <c r="I220" s="7"/>
       <c r="J220" s="7"/>
       <c r="K220" s="7"/>
@@ -6643,18 +6639,18 @@
       <c r="O220" s="7"/>
     </row>
     <row r="221" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A221" s="27"/>
-      <c r="B221" s="24"/>
-      <c r="C221" s="26"/>
-      <c r="D221" s="26"/>
+      <c r="A221" s="37"/>
+      <c r="B221" s="39"/>
+      <c r="C221" s="41"/>
+      <c r="D221" s="41"/>
       <c r="E221" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="F221" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="F221" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="G221" s="26"/>
-      <c r="H221" s="48"/>
+      <c r="G221" s="41"/>
+      <c r="H221" s="28"/>
       <c r="I221" s="7"/>
       <c r="J221" s="7"/>
       <c r="K221" s="7"/>
@@ -6664,18 +6660,18 @@
       <c r="O221" s="7"/>
     </row>
     <row r="222" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A222" s="27"/>
-      <c r="B222" s="24"/>
-      <c r="C222" s="26"/>
-      <c r="D222" s="26"/>
+      <c r="A222" s="37"/>
+      <c r="B222" s="39"/>
+      <c r="C222" s="41"/>
+      <c r="D222" s="41"/>
       <c r="E222" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="F222" s="34" t="s">
-        <v>184</v>
-      </c>
-      <c r="G222" s="26"/>
-      <c r="H222" s="48"/>
+        <v>166</v>
+      </c>
+      <c r="F222" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="G222" s="41"/>
+      <c r="H222" s="28"/>
       <c r="I222" s="7"/>
       <c r="J222" s="7"/>
       <c r="K222" s="7"/>
@@ -6685,29 +6681,29 @@
       <c r="O222" s="7"/>
     </row>
     <row r="223" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A223" s="27">
+      <c r="A223" s="37">
         <v>44</v>
       </c>
-      <c r="B223" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="C223" s="26" t="s">
+      <c r="B223" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="C223" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="D223" s="26" t="s">
-        <v>62</v>
+      <c r="D223" s="41" t="s">
+        <v>61</v>
       </c>
       <c r="E223" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F223" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="G223" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="H223" s="48" t="s">
-        <v>184</v>
+        <v>63</v>
+      </c>
+      <c r="F223" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G223" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="H223" s="28" t="s">
+        <v>183</v>
       </c>
       <c r="I223" s="7"/>
       <c r="J223" s="7"/>
@@ -6718,18 +6714,18 @@
       <c r="O223" s="7"/>
     </row>
     <row r="224" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A224" s="27"/>
-      <c r="B224" s="24"/>
-      <c r="C224" s="26"/>
-      <c r="D224" s="26"/>
+      <c r="A224" s="37"/>
+      <c r="B224" s="39"/>
+      <c r="C224" s="41"/>
+      <c r="D224" s="41"/>
       <c r="E224" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="F224" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="G224" s="26"/>
-      <c r="H224" s="48"/>
+        <v>114</v>
+      </c>
+      <c r="F224" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="G224" s="41"/>
+      <c r="H224" s="28"/>
       <c r="I224" s="7"/>
       <c r="J224" s="7"/>
       <c r="K224" s="7"/>
@@ -6739,18 +6735,18 @@
       <c r="O224" s="7"/>
     </row>
     <row r="225" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A225" s="27"/>
-      <c r="B225" s="24"/>
-      <c r="C225" s="26"/>
-      <c r="D225" s="26"/>
+      <c r="A225" s="37"/>
+      <c r="B225" s="39"/>
+      <c r="C225" s="41"/>
+      <c r="D225" s="41"/>
       <c r="E225" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="F225" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="F225" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="G225" s="26"/>
-      <c r="H225" s="48"/>
+      <c r="G225" s="41"/>
+      <c r="H225" s="28"/>
       <c r="I225" s="7"/>
       <c r="J225" s="7"/>
       <c r="K225" s="7"/>
@@ -6760,18 +6756,18 @@
       <c r="O225" s="7"/>
     </row>
     <row r="226" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A226" s="27"/>
-      <c r="B226" s="24"/>
-      <c r="C226" s="26"/>
-      <c r="D226" s="26"/>
+      <c r="A226" s="37"/>
+      <c r="B226" s="39"/>
+      <c r="C226" s="41"/>
+      <c r="D226" s="41"/>
       <c r="E226" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="F226" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="F226" s="34" t="s">
-        <v>187</v>
-      </c>
-      <c r="G226" s="26"/>
-      <c r="H226" s="48"/>
+      <c r="G226" s="41"/>
+      <c r="H226" s="28"/>
       <c r="I226" s="7"/>
       <c r="J226" s="7"/>
       <c r="K226" s="7"/>
@@ -6781,18 +6777,18 @@
       <c r="O226" s="7"/>
     </row>
     <row r="227" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A227" s="27"/>
-      <c r="B227" s="24"/>
-      <c r="C227" s="26"/>
-      <c r="D227" s="26"/>
+      <c r="A227" s="37"/>
+      <c r="B227" s="39"/>
+      <c r="C227" s="41"/>
+      <c r="D227" s="41"/>
       <c r="E227" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="F227" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="F227" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="G227" s="26"/>
-      <c r="H227" s="48"/>
+      <c r="G227" s="41"/>
+      <c r="H227" s="28"/>
       <c r="I227" s="7"/>
       <c r="J227" s="7"/>
       <c r="K227" s="7"/>
@@ -6802,18 +6798,18 @@
       <c r="O227" s="7"/>
     </row>
     <row r="228" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A228" s="27"/>
-      <c r="B228" s="24"/>
-      <c r="C228" s="26"/>
-      <c r="D228" s="26"/>
+      <c r="A228" s="37"/>
+      <c r="B228" s="39"/>
+      <c r="C228" s="41"/>
+      <c r="D228" s="41"/>
       <c r="E228" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="F228" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="F228" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="G228" s="26"/>
-      <c r="H228" s="48"/>
+      <c r="G228" s="41"/>
+      <c r="H228" s="28"/>
       <c r="I228" s="7"/>
       <c r="J228" s="7"/>
       <c r="K228" s="7"/>
@@ -6823,18 +6819,18 @@
       <c r="O228" s="7"/>
     </row>
     <row r="229" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A229" s="27"/>
-      <c r="B229" s="24"/>
-      <c r="C229" s="26"/>
-      <c r="D229" s="26"/>
+      <c r="A229" s="37"/>
+      <c r="B229" s="39"/>
+      <c r="C229" s="41"/>
+      <c r="D229" s="41"/>
       <c r="E229" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="F229" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="F229" s="34" t="s">
-        <v>164</v>
-      </c>
-      <c r="G229" s="26"/>
-      <c r="H229" s="48"/>
+      <c r="G229" s="41"/>
+      <c r="H229" s="28"/>
       <c r="I229" s="7"/>
       <c r="J229" s="7"/>
       <c r="K229" s="7"/>
@@ -6844,18 +6840,18 @@
       <c r="O229" s="7"/>
     </row>
     <row r="230" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A230" s="27"/>
-      <c r="B230" s="24"/>
-      <c r="C230" s="26"/>
-      <c r="D230" s="26"/>
+      <c r="A230" s="37"/>
+      <c r="B230" s="39"/>
+      <c r="C230" s="41"/>
+      <c r="D230" s="41"/>
       <c r="E230" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="F230" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="F230" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="G230" s="26"/>
-      <c r="H230" s="48"/>
+      <c r="G230" s="41"/>
+      <c r="H230" s="28"/>
       <c r="I230" s="7"/>
       <c r="J230" s="7"/>
       <c r="K230" s="7"/>
@@ -6865,18 +6861,18 @@
       <c r="O230" s="7"/>
     </row>
     <row r="231" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A231" s="27"/>
-      <c r="B231" s="24"/>
-      <c r="C231" s="26"/>
-      <c r="D231" s="26"/>
+      <c r="A231" s="37"/>
+      <c r="B231" s="39"/>
+      <c r="C231" s="41"/>
+      <c r="D231" s="41"/>
       <c r="E231" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="F231" s="34" t="s">
-        <v>184</v>
-      </c>
-      <c r="G231" s="26"/>
-      <c r="H231" s="48"/>
+        <v>166</v>
+      </c>
+      <c r="F231" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="G231" s="41"/>
+      <c r="H231" s="28"/>
       <c r="I231" s="7"/>
       <c r="J231" s="7"/>
       <c r="K231" s="7"/>
@@ -6886,29 +6882,29 @@
       <c r="O231" s="7"/>
     </row>
     <row r="232" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A232" s="27">
+      <c r="A232" s="37">
         <v>45</v>
       </c>
-      <c r="B232" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="C232" s="26" t="s">
+      <c r="B232" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="C232" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="D232" s="26" t="s">
-        <v>62</v>
+      <c r="D232" s="41" t="s">
+        <v>61</v>
       </c>
       <c r="E232" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F232" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="G232" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="H232" s="48" t="s">
-        <v>184</v>
+        <v>63</v>
+      </c>
+      <c r="F232" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G232" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="H232" s="28" t="s">
+        <v>183</v>
       </c>
       <c r="I232" s="7"/>
       <c r="J232" s="7"/>
@@ -6919,18 +6915,18 @@
       <c r="O232" s="7"/>
     </row>
     <row r="233" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A233" s="27"/>
-      <c r="B233" s="24"/>
-      <c r="C233" s="26"/>
-      <c r="D233" s="26"/>
+      <c r="A233" s="37"/>
+      <c r="B233" s="39"/>
+      <c r="C233" s="41"/>
+      <c r="D233" s="41"/>
       <c r="E233" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="F233" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="G233" s="26"/>
-      <c r="H233" s="48"/>
+        <v>114</v>
+      </c>
+      <c r="F233" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="G233" s="41"/>
+      <c r="H233" s="28"/>
       <c r="I233" s="7"/>
       <c r="J233" s="7"/>
       <c r="K233" s="7"/>
@@ -6940,18 +6936,18 @@
       <c r="O233" s="7"/>
     </row>
     <row r="234" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A234" s="27"/>
-      <c r="B234" s="24"/>
-      <c r="C234" s="26"/>
-      <c r="D234" s="26"/>
+      <c r="A234" s="37"/>
+      <c r="B234" s="39"/>
+      <c r="C234" s="41"/>
+      <c r="D234" s="41"/>
       <c r="E234" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="F234" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="F234" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="G234" s="26"/>
-      <c r="H234" s="48"/>
+      <c r="G234" s="41"/>
+      <c r="H234" s="28"/>
       <c r="I234" s="7"/>
       <c r="J234" s="7"/>
       <c r="K234" s="7"/>
@@ -6961,18 +6957,18 @@
       <c r="O234" s="7"/>
     </row>
     <row r="235" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A235" s="27"/>
-      <c r="B235" s="24"/>
-      <c r="C235" s="26"/>
-      <c r="D235" s="26"/>
+      <c r="A235" s="37"/>
+      <c r="B235" s="39"/>
+      <c r="C235" s="41"/>
+      <c r="D235" s="41"/>
       <c r="E235" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="F235" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="F235" s="34" t="s">
-        <v>189</v>
-      </c>
-      <c r="G235" s="26"/>
-      <c r="H235" s="48"/>
+      <c r="G235" s="41"/>
+      <c r="H235" s="28"/>
       <c r="I235" s="7"/>
       <c r="J235" s="7"/>
       <c r="K235" s="7"/>
@@ -6982,18 +6978,18 @@
       <c r="O235" s="7"/>
     </row>
     <row r="236" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A236" s="27"/>
-      <c r="B236" s="24"/>
-      <c r="C236" s="26"/>
-      <c r="D236" s="26"/>
+      <c r="A236" s="37"/>
+      <c r="B236" s="39"/>
+      <c r="C236" s="41"/>
+      <c r="D236" s="41"/>
       <c r="E236" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="F236" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="F236" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="G236" s="26"/>
-      <c r="H236" s="48"/>
+      <c r="G236" s="41"/>
+      <c r="H236" s="28"/>
       <c r="I236" s="7"/>
       <c r="J236" s="7"/>
       <c r="K236" s="7"/>
@@ -7003,18 +6999,18 @@
       <c r="O236" s="7"/>
     </row>
     <row r="237" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A237" s="27"/>
-      <c r="B237" s="24"/>
-      <c r="C237" s="26"/>
-      <c r="D237" s="26"/>
+      <c r="A237" s="37"/>
+      <c r="B237" s="39"/>
+      <c r="C237" s="41"/>
+      <c r="D237" s="41"/>
       <c r="E237" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="F237" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="F237" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="G237" s="26"/>
-      <c r="H237" s="48"/>
+      <c r="G237" s="41"/>
+      <c r="H237" s="28"/>
       <c r="I237" s="7"/>
       <c r="J237" s="7"/>
       <c r="K237" s="7"/>
@@ -7024,18 +7020,18 @@
       <c r="O237" s="7"/>
     </row>
     <row r="238" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A238" s="27"/>
-      <c r="B238" s="24"/>
-      <c r="C238" s="26"/>
-      <c r="D238" s="26"/>
+      <c r="A238" s="37"/>
+      <c r="B238" s="39"/>
+      <c r="C238" s="41"/>
+      <c r="D238" s="41"/>
       <c r="E238" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="F238" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="F238" s="34" t="s">
-        <v>164</v>
-      </c>
-      <c r="G238" s="26"/>
-      <c r="H238" s="48"/>
+      <c r="G238" s="41"/>
+      <c r="H238" s="28"/>
       <c r="I238" s="7"/>
       <c r="J238" s="7"/>
       <c r="K238" s="7"/>
@@ -7045,18 +7041,18 @@
       <c r="O238" s="7"/>
     </row>
     <row r="239" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A239" s="27"/>
-      <c r="B239" s="24"/>
-      <c r="C239" s="26"/>
-      <c r="D239" s="26"/>
+      <c r="A239" s="37"/>
+      <c r="B239" s="39"/>
+      <c r="C239" s="41"/>
+      <c r="D239" s="41"/>
       <c r="E239" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="F239" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="F239" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="G239" s="26"/>
-      <c r="H239" s="48"/>
+      <c r="G239" s="41"/>
+      <c r="H239" s="28"/>
       <c r="I239" s="7"/>
       <c r="J239" s="7"/>
       <c r="K239" s="7"/>
@@ -7066,18 +7062,18 @@
       <c r="O239" s="7"/>
     </row>
     <row r="240" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A240" s="27"/>
-      <c r="B240" s="24"/>
-      <c r="C240" s="26"/>
-      <c r="D240" s="26"/>
+      <c r="A240" s="37"/>
+      <c r="B240" s="39"/>
+      <c r="C240" s="41"/>
+      <c r="D240" s="41"/>
       <c r="E240" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="F240" s="34" t="s">
-        <v>184</v>
-      </c>
-      <c r="G240" s="26"/>
-      <c r="H240" s="48"/>
+        <v>166</v>
+      </c>
+      <c r="F240" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="G240" s="41"/>
+      <c r="H240" s="28"/>
       <c r="I240" s="7"/>
       <c r="J240" s="7"/>
       <c r="K240" s="7"/>
@@ -7087,29 +7083,29 @@
       <c r="O240" s="7"/>
     </row>
     <row r="241" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A241" s="27">
+      <c r="A241" s="37">
         <v>46</v>
       </c>
-      <c r="B241" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="C241" s="26" t="s">
+      <c r="B241" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="C241" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="D241" s="26" t="s">
-        <v>62</v>
+      <c r="D241" s="41" t="s">
+        <v>61</v>
       </c>
       <c r="E241" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F241" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="G241" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="H241" s="48" t="s">
-        <v>193</v>
+        <v>63</v>
+      </c>
+      <c r="F241" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G241" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="H241" s="28" t="s">
+        <v>192</v>
       </c>
       <c r="I241" s="7"/>
       <c r="J241" s="7"/>
@@ -7120,18 +7116,18 @@
       <c r="O241" s="7"/>
     </row>
     <row r="242" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A242" s="27"/>
-      <c r="B242" s="24"/>
-      <c r="C242" s="26"/>
-      <c r="D242" s="26"/>
+      <c r="A242" s="37"/>
+      <c r="B242" s="39"/>
+      <c r="C242" s="41"/>
+      <c r="D242" s="41"/>
       <c r="E242" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="F242" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="G242" s="26"/>
-      <c r="H242" s="48"/>
+        <v>114</v>
+      </c>
+      <c r="F242" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="G242" s="41"/>
+      <c r="H242" s="28"/>
       <c r="I242" s="7"/>
       <c r="J242" s="7"/>
       <c r="K242" s="7"/>
@@ -7141,18 +7137,18 @@
       <c r="O242" s="7"/>
     </row>
     <row r="243" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A243" s="27"/>
-      <c r="B243" s="24"/>
-      <c r="C243" s="26"/>
-      <c r="D243" s="26"/>
+      <c r="A243" s="37"/>
+      <c r="B243" s="39"/>
+      <c r="C243" s="41"/>
+      <c r="D243" s="41"/>
       <c r="E243" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="F243" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="F243" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="G243" s="26"/>
-      <c r="H243" s="48"/>
+      <c r="G243" s="41"/>
+      <c r="H243" s="28"/>
       <c r="I243" s="7"/>
       <c r="J243" s="7"/>
       <c r="K243" s="7"/>
@@ -7162,18 +7158,18 @@
       <c r="O243" s="7"/>
     </row>
     <row r="244" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A244" s="27"/>
-      <c r="B244" s="24"/>
-      <c r="C244" s="26"/>
-      <c r="D244" s="26"/>
+      <c r="A244" s="37"/>
+      <c r="B244" s="39"/>
+      <c r="C244" s="41"/>
+      <c r="D244" s="41"/>
       <c r="E244" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="F244" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="F244" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="G244" s="26"/>
-      <c r="H244" s="48"/>
+      <c r="G244" s="41"/>
+      <c r="H244" s="28"/>
       <c r="I244" s="7"/>
       <c r="J244" s="7"/>
       <c r="K244" s="7"/>
@@ -7183,18 +7179,18 @@
       <c r="O244" s="7"/>
     </row>
     <row r="245" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A245" s="27"/>
-      <c r="B245" s="24"/>
-      <c r="C245" s="26"/>
-      <c r="D245" s="26"/>
+      <c r="A245" s="37"/>
+      <c r="B245" s="39"/>
+      <c r="C245" s="41"/>
+      <c r="D245" s="41"/>
       <c r="E245" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="F245" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="F245" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="G245" s="26"/>
-      <c r="H245" s="48"/>
+      <c r="G245" s="41"/>
+      <c r="H245" s="28"/>
       <c r="I245" s="7"/>
       <c r="J245" s="7"/>
       <c r="K245" s="7"/>
@@ -7204,18 +7200,18 @@
       <c r="O245" s="7"/>
     </row>
     <row r="246" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="A246" s="27"/>
-      <c r="B246" s="24"/>
-      <c r="C246" s="26"/>
-      <c r="D246" s="26"/>
+      <c r="A246" s="37"/>
+      <c r="B246" s="39"/>
+      <c r="C246" s="41"/>
+      <c r="D246" s="41"/>
       <c r="E246" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="F246" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="G246" s="26"/>
-      <c r="H246" s="48"/>
+        <v>191</v>
+      </c>
+      <c r="F246" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="G246" s="41"/>
+      <c r="H246" s="28"/>
       <c r="I246" s="7"/>
       <c r="J246" s="7"/>
       <c r="K246" s="7"/>
@@ -7225,18 +7221,18 @@
       <c r="O246" s="7"/>
     </row>
     <row r="247" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A247" s="27"/>
-      <c r="B247" s="24"/>
-      <c r="C247" s="26"/>
-      <c r="D247" s="26"/>
+      <c r="A247" s="37"/>
+      <c r="B247" s="39"/>
+      <c r="C247" s="41"/>
+      <c r="D247" s="41"/>
       <c r="E247" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="F247" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="F247" s="34" t="s">
-        <v>164</v>
-      </c>
-      <c r="G247" s="26"/>
-      <c r="H247" s="48"/>
+      <c r="G247" s="41"/>
+      <c r="H247" s="28"/>
       <c r="I247" s="7"/>
       <c r="J247" s="7"/>
       <c r="K247" s="7"/>
@@ -7246,18 +7242,18 @@
       <c r="O247" s="7"/>
     </row>
     <row r="248" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A248" s="27"/>
-      <c r="B248" s="24"/>
-      <c r="C248" s="26"/>
-      <c r="D248" s="26"/>
+      <c r="A248" s="37"/>
+      <c r="B248" s="39"/>
+      <c r="C248" s="41"/>
+      <c r="D248" s="41"/>
       <c r="E248" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="F248" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="F248" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="G248" s="26"/>
-      <c r="H248" s="48"/>
+      <c r="G248" s="41"/>
+      <c r="H248" s="28"/>
       <c r="I248" s="7"/>
       <c r="J248" s="7"/>
       <c r="K248" s="7"/>
@@ -7267,18 +7263,18 @@
       <c r="O248" s="7"/>
     </row>
     <row r="249" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A249" s="27"/>
-      <c r="B249" s="24"/>
-      <c r="C249" s="26"/>
-      <c r="D249" s="26"/>
+      <c r="A249" s="37"/>
+      <c r="B249" s="39"/>
+      <c r="C249" s="41"/>
+      <c r="D249" s="41"/>
       <c r="E249" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="F249" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="G249" s="26"/>
-      <c r="H249" s="48"/>
+        <v>166</v>
+      </c>
+      <c r="F249" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="G249" s="41"/>
+      <c r="H249" s="28"/>
       <c r="I249" s="7"/>
       <c r="J249" s="7"/>
       <c r="K249" s="7"/>
@@ -7288,29 +7284,29 @@
       <c r="O249" s="7"/>
     </row>
     <row r="250" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A250" s="27">
+      <c r="A250" s="37">
         <v>47</v>
       </c>
-      <c r="B250" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="C250" s="26" t="s">
+      <c r="B250" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="C250" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="D250" s="26" t="s">
-        <v>62</v>
+      <c r="D250" s="41" t="s">
+        <v>61</v>
       </c>
       <c r="E250" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F250" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="G250" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="H250" s="48" t="s">
-        <v>193</v>
+        <v>63</v>
+      </c>
+      <c r="F250" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G250" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="H250" s="28" t="s">
+        <v>192</v>
       </c>
       <c r="I250" s="7"/>
       <c r="J250" s="7"/>
@@ -7321,18 +7317,18 @@
       <c r="O250" s="7"/>
     </row>
     <row r="251" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A251" s="27"/>
-      <c r="B251" s="24"/>
-      <c r="C251" s="26"/>
-      <c r="D251" s="26"/>
+      <c r="A251" s="37"/>
+      <c r="B251" s="39"/>
+      <c r="C251" s="41"/>
+      <c r="D251" s="41"/>
       <c r="E251" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="F251" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="G251" s="26"/>
-      <c r="H251" s="48"/>
+        <v>114</v>
+      </c>
+      <c r="F251" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="G251" s="41"/>
+      <c r="H251" s="28"/>
       <c r="I251" s="7"/>
       <c r="J251" s="7"/>
       <c r="K251" s="7"/>
@@ -7342,18 +7338,18 @@
       <c r="O251" s="7"/>
     </row>
     <row r="252" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A252" s="27"/>
-      <c r="B252" s="24"/>
-      <c r="C252" s="26"/>
-      <c r="D252" s="26"/>
+      <c r="A252" s="37"/>
+      <c r="B252" s="39"/>
+      <c r="C252" s="41"/>
+      <c r="D252" s="41"/>
       <c r="E252" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="F252" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="F252" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="G252" s="26"/>
-      <c r="H252" s="48"/>
+      <c r="G252" s="41"/>
+      <c r="H252" s="28"/>
       <c r="I252" s="7"/>
       <c r="J252" s="7"/>
       <c r="K252" s="7"/>
@@ -7363,18 +7359,18 @@
       <c r="O252" s="7"/>
     </row>
     <row r="253" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A253" s="27"/>
-      <c r="B253" s="24"/>
-      <c r="C253" s="26"/>
-      <c r="D253" s="26"/>
+      <c r="A253" s="37"/>
+      <c r="B253" s="39"/>
+      <c r="C253" s="41"/>
+      <c r="D253" s="41"/>
       <c r="E253" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="F253" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="F253" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="G253" s="26"/>
-      <c r="H253" s="48"/>
+      <c r="G253" s="41"/>
+      <c r="H253" s="28"/>
       <c r="I253" s="7"/>
       <c r="J253" s="7"/>
       <c r="K253" s="7"/>
@@ -7384,18 +7380,18 @@
       <c r="O253" s="7"/>
     </row>
     <row r="254" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A254" s="27"/>
-      <c r="B254" s="24"/>
-      <c r="C254" s="26"/>
-      <c r="D254" s="26"/>
+      <c r="A254" s="37"/>
+      <c r="B254" s="39"/>
+      <c r="C254" s="41"/>
+      <c r="D254" s="41"/>
       <c r="E254" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="F254" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="F254" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="G254" s="26"/>
-      <c r="H254" s="48"/>
+      <c r="G254" s="41"/>
+      <c r="H254" s="28"/>
       <c r="I254" s="7"/>
       <c r="J254" s="7"/>
       <c r="K254" s="7"/>
@@ -7405,18 +7401,18 @@
       <c r="O254" s="7"/>
     </row>
     <row r="255" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="A255" s="27"/>
-      <c r="B255" s="24"/>
-      <c r="C255" s="26"/>
-      <c r="D255" s="26"/>
+      <c r="A255" s="37"/>
+      <c r="B255" s="39"/>
+      <c r="C255" s="41"/>
+      <c r="D255" s="41"/>
       <c r="E255" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="F255" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="G255" s="26"/>
-      <c r="H255" s="48"/>
+        <v>191</v>
+      </c>
+      <c r="F255" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="G255" s="41"/>
+      <c r="H255" s="28"/>
       <c r="I255" s="7"/>
       <c r="J255" s="7"/>
       <c r="K255" s="7"/>
@@ -7426,18 +7422,18 @@
       <c r="O255" s="7"/>
     </row>
     <row r="256" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A256" s="27"/>
-      <c r="B256" s="24"/>
-      <c r="C256" s="26"/>
-      <c r="D256" s="26"/>
+      <c r="A256" s="37"/>
+      <c r="B256" s="39"/>
+      <c r="C256" s="41"/>
+      <c r="D256" s="41"/>
       <c r="E256" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="F256" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="F256" s="34" t="s">
-        <v>196</v>
-      </c>
-      <c r="G256" s="26"/>
-      <c r="H256" s="48"/>
+      <c r="G256" s="41"/>
+      <c r="H256" s="28"/>
       <c r="I256" s="7"/>
       <c r="J256" s="7"/>
       <c r="K256" s="7"/>
@@ -7447,18 +7443,18 @@
       <c r="O256" s="7"/>
     </row>
     <row r="257" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A257" s="27"/>
-      <c r="B257" s="24"/>
-      <c r="C257" s="26"/>
-      <c r="D257" s="26"/>
+      <c r="A257" s="37"/>
+      <c r="B257" s="39"/>
+      <c r="C257" s="41"/>
+      <c r="D257" s="41"/>
       <c r="E257" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="F257" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="F257" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="G257" s="26"/>
-      <c r="H257" s="48"/>
+      <c r="G257" s="41"/>
+      <c r="H257" s="28"/>
       <c r="I257" s="7"/>
       <c r="J257" s="7"/>
       <c r="K257" s="7"/>
@@ -7468,18 +7464,18 @@
       <c r="O257" s="7"/>
     </row>
     <row r="258" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A258" s="27"/>
-      <c r="B258" s="24"/>
-      <c r="C258" s="26"/>
-      <c r="D258" s="26"/>
+      <c r="A258" s="37"/>
+      <c r="B258" s="39"/>
+      <c r="C258" s="41"/>
+      <c r="D258" s="41"/>
       <c r="E258" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="F258" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="G258" s="26"/>
-      <c r="H258" s="48"/>
+        <v>166</v>
+      </c>
+      <c r="F258" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="G258" s="41"/>
+      <c r="H258" s="28"/>
       <c r="I258" s="7"/>
       <c r="J258" s="7"/>
       <c r="K258" s="7"/>
@@ -7489,29 +7485,29 @@
       <c r="O258" s="7"/>
     </row>
     <row r="259" spans="1:15" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A259" s="27">
+      <c r="A259" s="37">
         <v>48</v>
       </c>
-      <c r="B259" s="24" t="s">
+      <c r="B259" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="C259" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D259" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="E259" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="C259" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D259" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="E259" s="16" t="s">
+      <c r="F259" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="F259" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="G259" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="H259" s="48" t="s">
-        <v>203</v>
+      <c r="G259" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="H259" s="28" t="s">
+        <v>202</v>
       </c>
       <c r="I259" s="7"/>
       <c r="J259" s="7"/>
@@ -7522,18 +7518,18 @@
       <c r="O259" s="7"/>
     </row>
     <row r="260" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A260" s="27"/>
-      <c r="B260" s="24"/>
-      <c r="C260" s="26"/>
-      <c r="D260" s="26"/>
+      <c r="A260" s="37"/>
+      <c r="B260" s="39"/>
+      <c r="C260" s="41"/>
+      <c r="D260" s="41"/>
       <c r="E260" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="F260" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="G260" s="26"/>
-      <c r="H260" s="48"/>
+        <v>199</v>
+      </c>
+      <c r="F260" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="G260" s="41"/>
+      <c r="H260" s="28"/>
       <c r="I260" s="7"/>
       <c r="J260" s="7"/>
       <c r="K260" s="7"/>
@@ -7543,18 +7539,18 @@
       <c r="O260" s="7"/>
     </row>
     <row r="261" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A261" s="27"/>
-      <c r="B261" s="24"/>
-      <c r="C261" s="26"/>
-      <c r="D261" s="26"/>
+      <c r="A261" s="37"/>
+      <c r="B261" s="39"/>
+      <c r="C261" s="41"/>
+      <c r="D261" s="41"/>
       <c r="E261" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="F261" s="34" t="s">
-        <v>203</v>
-      </c>
-      <c r="G261" s="26"/>
-      <c r="H261" s="48"/>
+        <v>200</v>
+      </c>
+      <c r="F261" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="G261" s="41"/>
+      <c r="H261" s="28"/>
       <c r="I261" s="7"/>
       <c r="J261" s="7"/>
       <c r="K261" s="7"/>
@@ -7564,29 +7560,29 @@
       <c r="O261" s="7"/>
     </row>
     <row r="262" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="A262" s="27">
+      <c r="A262" s="37">
         <v>49</v>
       </c>
-      <c r="B262" s="24" t="s">
+      <c r="B262" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="C262" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D262" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="E262" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="C262" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D262" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="E262" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="F262" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="G262" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="H262" s="49" t="s">
-        <v>219</v>
+      <c r="F262" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="G262" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="H262" s="29" t="s">
+        <v>218</v>
       </c>
       <c r="I262" s="7"/>
       <c r="J262" s="7"/>
@@ -7597,18 +7593,18 @@
       <c r="O262" s="7"/>
     </row>
     <row r="263" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A263" s="27"/>
-      <c r="B263" s="24"/>
-      <c r="C263" s="26"/>
-      <c r="D263" s="26"/>
+      <c r="A263" s="37"/>
+      <c r="B263" s="39"/>
+      <c r="C263" s="41"/>
+      <c r="D263" s="41"/>
       <c r="E263" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="F263" s="34" t="s">
-        <v>209</v>
-      </c>
-      <c r="G263" s="26"/>
-      <c r="H263" s="49"/>
+        <v>205</v>
+      </c>
+      <c r="F263" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="G263" s="41"/>
+      <c r="H263" s="29"/>
       <c r="I263" s="7"/>
       <c r="J263" s="7"/>
       <c r="K263" s="7"/>
@@ -7618,18 +7614,18 @@
       <c r="O263" s="7"/>
     </row>
     <row r="264" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A264" s="27"/>
-      <c r="B264" s="24"/>
-      <c r="C264" s="26"/>
-      <c r="D264" s="26"/>
+      <c r="A264" s="37"/>
+      <c r="B264" s="39"/>
+      <c r="C264" s="41"/>
+      <c r="D264" s="41"/>
       <c r="E264" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="F264" s="34" t="s">
-        <v>210</v>
-      </c>
-      <c r="G264" s="26"/>
-      <c r="H264" s="49"/>
+        <v>206</v>
+      </c>
+      <c r="F264" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="G264" s="41"/>
+      <c r="H264" s="29"/>
       <c r="I264" s="7"/>
       <c r="J264" s="7"/>
       <c r="K264" s="7"/>
@@ -7639,29 +7635,29 @@
       <c r="O264" s="7"/>
     </row>
     <row r="265" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="A265" s="27">
+      <c r="A265" s="37">
         <v>50</v>
       </c>
-      <c r="B265" s="24" t="s">
-        <v>211</v>
-      </c>
-      <c r="C265" s="26" t="s">
+      <c r="B265" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="C265" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="D265" s="26" t="s">
-        <v>62</v>
+      <c r="D265" s="41" t="s">
+        <v>61</v>
       </c>
       <c r="E265" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="F265" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="G265" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="H265" s="49" t="s">
-        <v>219</v>
+        <v>204</v>
+      </c>
+      <c r="F265" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="G265" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="H265" s="29" t="s">
+        <v>218</v>
       </c>
       <c r="I265" s="7"/>
       <c r="J265" s="7"/>
@@ -7672,18 +7668,18 @@
       <c r="O265" s="7"/>
     </row>
     <row r="266" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A266" s="27"/>
-      <c r="B266" s="24"/>
-      <c r="C266" s="26"/>
-      <c r="D266" s="26"/>
+      <c r="A266" s="37"/>
+      <c r="B266" s="39"/>
+      <c r="C266" s="41"/>
+      <c r="D266" s="41"/>
       <c r="E266" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="F266" s="34" t="s">
-        <v>209</v>
-      </c>
-      <c r="G266" s="26"/>
-      <c r="H266" s="49"/>
+        <v>205</v>
+      </c>
+      <c r="F266" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="G266" s="41"/>
+      <c r="H266" s="29"/>
       <c r="I266" s="7"/>
       <c r="J266" s="7"/>
       <c r="K266" s="7"/>
@@ -7693,18 +7689,18 @@
       <c r="O266" s="7"/>
     </row>
     <row r="267" spans="1:15" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A267" s="28"/>
-      <c r="B267" s="29"/>
-      <c r="C267" s="30"/>
-      <c r="D267" s="30"/>
+      <c r="A267" s="38"/>
+      <c r="B267" s="40"/>
+      <c r="C267" s="42"/>
+      <c r="D267" s="42"/>
       <c r="E267" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="F267" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="F267" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="G267" s="26"/>
-      <c r="H267" s="49"/>
+      <c r="G267" s="41"/>
+      <c r="H267" s="29"/>
       <c r="I267" s="7"/>
       <c r="J267" s="7"/>
       <c r="K267" s="7"/>
@@ -16215,6 +16211,288 @@
     </row>
   </sheetData>
   <mergeCells count="306">
+    <mergeCell ref="G135:G139"/>
+    <mergeCell ref="G140:G144"/>
+    <mergeCell ref="G145:G149"/>
+    <mergeCell ref="G150:G154"/>
+    <mergeCell ref="G155:G159"/>
+    <mergeCell ref="G160:G168"/>
+    <mergeCell ref="G169:G177"/>
+    <mergeCell ref="G178:G186"/>
+    <mergeCell ref="G187:G195"/>
+    <mergeCell ref="G265:G267"/>
+    <mergeCell ref="G196:G204"/>
+    <mergeCell ref="G205:G213"/>
+    <mergeCell ref="G214:G222"/>
+    <mergeCell ref="G223:G231"/>
+    <mergeCell ref="G232:G240"/>
+    <mergeCell ref="G241:G249"/>
+    <mergeCell ref="G250:G258"/>
+    <mergeCell ref="G259:G261"/>
+    <mergeCell ref="G262:G264"/>
+    <mergeCell ref="G113:G117"/>
+    <mergeCell ref="G118:G120"/>
+    <mergeCell ref="G121:G124"/>
+    <mergeCell ref="G125:G129"/>
+    <mergeCell ref="G130:G134"/>
+    <mergeCell ref="G68:G71"/>
+    <mergeCell ref="G72:G75"/>
+    <mergeCell ref="G76:G79"/>
+    <mergeCell ref="G80:G83"/>
+    <mergeCell ref="G84:G87"/>
+    <mergeCell ref="G88:G91"/>
+    <mergeCell ref="G92:G95"/>
+    <mergeCell ref="G96:G99"/>
+    <mergeCell ref="G100:G103"/>
+    <mergeCell ref="G104:G107"/>
+    <mergeCell ref="G108:G112"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="C57:C60"/>
+    <mergeCell ref="D57:D60"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="D53:D56"/>
+    <mergeCell ref="G2:G8"/>
+    <mergeCell ref="G9:G12"/>
+    <mergeCell ref="G13:G16"/>
+    <mergeCell ref="G17:G20"/>
+    <mergeCell ref="G21:G24"/>
+    <mergeCell ref="G25:G28"/>
+    <mergeCell ref="G29:G32"/>
+    <mergeCell ref="G33:G36"/>
+    <mergeCell ref="G37:G40"/>
+    <mergeCell ref="G41:G44"/>
+    <mergeCell ref="G45:G48"/>
+    <mergeCell ref="G49:G52"/>
+    <mergeCell ref="G53:G56"/>
+    <mergeCell ref="G57:G60"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="C37:C40"/>
+    <mergeCell ref="D37:D40"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="D45:D48"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="C49:C52"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="D41:D44"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="D25:D28"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="D64:D67"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="D2:D8"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="C76:C79"/>
+    <mergeCell ref="D76:D79"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="C80:C83"/>
+    <mergeCell ref="D80:D83"/>
+    <mergeCell ref="A68:A71"/>
+    <mergeCell ref="B68:B71"/>
+    <mergeCell ref="C68:C71"/>
+    <mergeCell ref="D68:D71"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="C72:C75"/>
+    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="A92:A95"/>
+    <mergeCell ref="B92:B95"/>
+    <mergeCell ref="C92:C95"/>
+    <mergeCell ref="D92:D95"/>
+    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="B96:B99"/>
+    <mergeCell ref="C96:C99"/>
+    <mergeCell ref="D96:D99"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="C84:C87"/>
+    <mergeCell ref="D84:D87"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="B88:B91"/>
+    <mergeCell ref="C88:C91"/>
+    <mergeCell ref="D88:D91"/>
+    <mergeCell ref="A108:A112"/>
+    <mergeCell ref="C113:C117"/>
+    <mergeCell ref="D113:D117"/>
+    <mergeCell ref="B113:B117"/>
+    <mergeCell ref="A113:A117"/>
+    <mergeCell ref="D108:D112"/>
+    <mergeCell ref="C108:C112"/>
+    <mergeCell ref="B108:B112"/>
+    <mergeCell ref="A100:A103"/>
+    <mergeCell ref="B100:B103"/>
+    <mergeCell ref="C100:C103"/>
+    <mergeCell ref="D100:D103"/>
+    <mergeCell ref="A104:A107"/>
+    <mergeCell ref="B104:B107"/>
+    <mergeCell ref="C104:C107"/>
+    <mergeCell ref="D104:D107"/>
+    <mergeCell ref="D125:D129"/>
+    <mergeCell ref="C125:C129"/>
+    <mergeCell ref="B125:B129"/>
+    <mergeCell ref="A125:A129"/>
+    <mergeCell ref="B130:B134"/>
+    <mergeCell ref="C130:C134"/>
+    <mergeCell ref="D130:D134"/>
+    <mergeCell ref="A130:A134"/>
+    <mergeCell ref="D118:D120"/>
+    <mergeCell ref="C118:C120"/>
+    <mergeCell ref="B118:B120"/>
+    <mergeCell ref="A118:A120"/>
+    <mergeCell ref="A121:A124"/>
+    <mergeCell ref="B121:B124"/>
+    <mergeCell ref="C121:C124"/>
+    <mergeCell ref="D121:D124"/>
+    <mergeCell ref="A145:A149"/>
+    <mergeCell ref="B145:B149"/>
+    <mergeCell ref="C145:C149"/>
+    <mergeCell ref="D145:D149"/>
+    <mergeCell ref="C150:C154"/>
+    <mergeCell ref="D150:D154"/>
+    <mergeCell ref="B150:B154"/>
+    <mergeCell ref="A150:A154"/>
+    <mergeCell ref="A135:A139"/>
+    <mergeCell ref="B135:B139"/>
+    <mergeCell ref="C135:C139"/>
+    <mergeCell ref="D135:D139"/>
+    <mergeCell ref="A140:A144"/>
+    <mergeCell ref="B140:B144"/>
+    <mergeCell ref="C140:C144"/>
+    <mergeCell ref="D140:D144"/>
+    <mergeCell ref="A169:A177"/>
+    <mergeCell ref="B169:B177"/>
+    <mergeCell ref="C169:C177"/>
+    <mergeCell ref="D169:D177"/>
+    <mergeCell ref="A178:A186"/>
+    <mergeCell ref="B178:B186"/>
+    <mergeCell ref="C178:C186"/>
+    <mergeCell ref="D178:D186"/>
+    <mergeCell ref="A155:A159"/>
+    <mergeCell ref="C155:C159"/>
+    <mergeCell ref="D155:D159"/>
+    <mergeCell ref="B155:B159"/>
+    <mergeCell ref="D160:D168"/>
+    <mergeCell ref="C160:C168"/>
+    <mergeCell ref="B160:B168"/>
+    <mergeCell ref="A160:A168"/>
+    <mergeCell ref="A205:A213"/>
+    <mergeCell ref="B205:B213"/>
+    <mergeCell ref="C205:C213"/>
+    <mergeCell ref="D205:D213"/>
+    <mergeCell ref="A214:A222"/>
+    <mergeCell ref="B214:B222"/>
+    <mergeCell ref="C214:C222"/>
+    <mergeCell ref="D214:D222"/>
+    <mergeCell ref="A187:A195"/>
+    <mergeCell ref="B187:B195"/>
+    <mergeCell ref="C187:C195"/>
+    <mergeCell ref="D187:D195"/>
+    <mergeCell ref="A196:A204"/>
+    <mergeCell ref="B196:B204"/>
+    <mergeCell ref="C196:C204"/>
+    <mergeCell ref="D196:D204"/>
+    <mergeCell ref="A241:A249"/>
+    <mergeCell ref="B241:B249"/>
+    <mergeCell ref="C241:C249"/>
+    <mergeCell ref="D241:D249"/>
+    <mergeCell ref="A250:A258"/>
+    <mergeCell ref="B250:B258"/>
+    <mergeCell ref="C250:C258"/>
+    <mergeCell ref="D250:D258"/>
+    <mergeCell ref="A223:A231"/>
+    <mergeCell ref="B223:B231"/>
+    <mergeCell ref="C223:C231"/>
+    <mergeCell ref="D223:D231"/>
+    <mergeCell ref="A232:A240"/>
+    <mergeCell ref="B232:B240"/>
+    <mergeCell ref="C232:C240"/>
+    <mergeCell ref="D232:D240"/>
+    <mergeCell ref="A265:A267"/>
+    <mergeCell ref="B265:B267"/>
+    <mergeCell ref="C265:C267"/>
+    <mergeCell ref="D265:D267"/>
+    <mergeCell ref="D259:D261"/>
+    <mergeCell ref="C259:C261"/>
+    <mergeCell ref="B259:B261"/>
+    <mergeCell ref="A259:A261"/>
+    <mergeCell ref="A262:A264"/>
+    <mergeCell ref="B262:B264"/>
+    <mergeCell ref="C262:C264"/>
+    <mergeCell ref="D262:D264"/>
+    <mergeCell ref="H41:H44"/>
+    <mergeCell ref="H45:H48"/>
+    <mergeCell ref="H49:H52"/>
+    <mergeCell ref="H53:H56"/>
+    <mergeCell ref="H57:H60"/>
+    <mergeCell ref="H68:H71"/>
+    <mergeCell ref="H72:H75"/>
+    <mergeCell ref="H76:H79"/>
+    <mergeCell ref="H2:H8"/>
+    <mergeCell ref="H9:H12"/>
+    <mergeCell ref="H13:H16"/>
+    <mergeCell ref="H17:H20"/>
+    <mergeCell ref="H21:H24"/>
+    <mergeCell ref="H25:H28"/>
+    <mergeCell ref="H29:H32"/>
+    <mergeCell ref="H33:H36"/>
+    <mergeCell ref="H37:H40"/>
+    <mergeCell ref="H145:H149"/>
+    <mergeCell ref="H150:H154"/>
+    <mergeCell ref="H155:H159"/>
+    <mergeCell ref="H80:H83"/>
+    <mergeCell ref="H84:H87"/>
+    <mergeCell ref="H88:H91"/>
+    <mergeCell ref="H92:H95"/>
+    <mergeCell ref="H96:H99"/>
+    <mergeCell ref="H100:H103"/>
+    <mergeCell ref="H104:H107"/>
+    <mergeCell ref="H108:H112"/>
+    <mergeCell ref="H113:H117"/>
     <mergeCell ref="H241:H249"/>
     <mergeCell ref="H250:H258"/>
     <mergeCell ref="H259:H261"/>
@@ -16239,288 +16517,6 @@
     <mergeCell ref="H130:H134"/>
     <mergeCell ref="H135:H139"/>
     <mergeCell ref="H140:H144"/>
-    <mergeCell ref="H145:H149"/>
-    <mergeCell ref="H150:H154"/>
-    <mergeCell ref="H155:H159"/>
-    <mergeCell ref="H80:H83"/>
-    <mergeCell ref="H84:H87"/>
-    <mergeCell ref="H88:H91"/>
-    <mergeCell ref="H92:H95"/>
-    <mergeCell ref="H96:H99"/>
-    <mergeCell ref="H100:H103"/>
-    <mergeCell ref="H104:H107"/>
-    <mergeCell ref="H108:H112"/>
-    <mergeCell ref="H113:H117"/>
-    <mergeCell ref="H41:H44"/>
-    <mergeCell ref="H45:H48"/>
-    <mergeCell ref="H49:H52"/>
-    <mergeCell ref="H53:H56"/>
-    <mergeCell ref="H57:H60"/>
-    <mergeCell ref="H68:H71"/>
-    <mergeCell ref="H72:H75"/>
-    <mergeCell ref="H76:H79"/>
-    <mergeCell ref="H2:H8"/>
-    <mergeCell ref="H9:H12"/>
-    <mergeCell ref="H13:H16"/>
-    <mergeCell ref="H17:H20"/>
-    <mergeCell ref="H21:H24"/>
-    <mergeCell ref="H25:H28"/>
-    <mergeCell ref="H29:H32"/>
-    <mergeCell ref="H33:H36"/>
-    <mergeCell ref="H37:H40"/>
-    <mergeCell ref="A265:A267"/>
-    <mergeCell ref="B265:B267"/>
-    <mergeCell ref="C265:C267"/>
-    <mergeCell ref="D265:D267"/>
-    <mergeCell ref="D259:D261"/>
-    <mergeCell ref="C259:C261"/>
-    <mergeCell ref="B259:B261"/>
-    <mergeCell ref="A259:A261"/>
-    <mergeCell ref="A262:A264"/>
-    <mergeCell ref="B262:B264"/>
-    <mergeCell ref="C262:C264"/>
-    <mergeCell ref="D262:D264"/>
-    <mergeCell ref="A241:A249"/>
-    <mergeCell ref="B241:B249"/>
-    <mergeCell ref="C241:C249"/>
-    <mergeCell ref="D241:D249"/>
-    <mergeCell ref="A250:A258"/>
-    <mergeCell ref="B250:B258"/>
-    <mergeCell ref="C250:C258"/>
-    <mergeCell ref="D250:D258"/>
-    <mergeCell ref="A223:A231"/>
-    <mergeCell ref="B223:B231"/>
-    <mergeCell ref="C223:C231"/>
-    <mergeCell ref="D223:D231"/>
-    <mergeCell ref="A232:A240"/>
-    <mergeCell ref="B232:B240"/>
-    <mergeCell ref="C232:C240"/>
-    <mergeCell ref="D232:D240"/>
-    <mergeCell ref="A205:A213"/>
-    <mergeCell ref="B205:B213"/>
-    <mergeCell ref="C205:C213"/>
-    <mergeCell ref="D205:D213"/>
-    <mergeCell ref="A214:A222"/>
-    <mergeCell ref="B214:B222"/>
-    <mergeCell ref="C214:C222"/>
-    <mergeCell ref="D214:D222"/>
-    <mergeCell ref="A187:A195"/>
-    <mergeCell ref="B187:B195"/>
-    <mergeCell ref="C187:C195"/>
-    <mergeCell ref="D187:D195"/>
-    <mergeCell ref="A196:A204"/>
-    <mergeCell ref="B196:B204"/>
-    <mergeCell ref="C196:C204"/>
-    <mergeCell ref="D196:D204"/>
-    <mergeCell ref="A169:A177"/>
-    <mergeCell ref="B169:B177"/>
-    <mergeCell ref="C169:C177"/>
-    <mergeCell ref="D169:D177"/>
-    <mergeCell ref="A178:A186"/>
-    <mergeCell ref="B178:B186"/>
-    <mergeCell ref="C178:C186"/>
-    <mergeCell ref="D178:D186"/>
-    <mergeCell ref="A155:A159"/>
-    <mergeCell ref="C155:C159"/>
-    <mergeCell ref="D155:D159"/>
-    <mergeCell ref="B155:B159"/>
-    <mergeCell ref="D160:D168"/>
-    <mergeCell ref="C160:C168"/>
-    <mergeCell ref="B160:B168"/>
-    <mergeCell ref="A160:A168"/>
-    <mergeCell ref="A145:A149"/>
-    <mergeCell ref="B145:B149"/>
-    <mergeCell ref="C145:C149"/>
-    <mergeCell ref="D145:D149"/>
-    <mergeCell ref="C150:C154"/>
-    <mergeCell ref="D150:D154"/>
-    <mergeCell ref="B150:B154"/>
-    <mergeCell ref="A150:A154"/>
-    <mergeCell ref="A135:A139"/>
-    <mergeCell ref="B135:B139"/>
-    <mergeCell ref="C135:C139"/>
-    <mergeCell ref="D135:D139"/>
-    <mergeCell ref="A140:A144"/>
-    <mergeCell ref="B140:B144"/>
-    <mergeCell ref="C140:C144"/>
-    <mergeCell ref="D140:D144"/>
-    <mergeCell ref="D125:D129"/>
-    <mergeCell ref="C125:C129"/>
-    <mergeCell ref="B125:B129"/>
-    <mergeCell ref="A125:A129"/>
-    <mergeCell ref="B130:B134"/>
-    <mergeCell ref="C130:C134"/>
-    <mergeCell ref="D130:D134"/>
-    <mergeCell ref="A130:A134"/>
-    <mergeCell ref="D118:D120"/>
-    <mergeCell ref="C118:C120"/>
-    <mergeCell ref="B118:B120"/>
-    <mergeCell ref="A118:A120"/>
-    <mergeCell ref="A121:A124"/>
-    <mergeCell ref="B121:B124"/>
-    <mergeCell ref="C121:C124"/>
-    <mergeCell ref="D121:D124"/>
-    <mergeCell ref="A108:A112"/>
-    <mergeCell ref="C113:C117"/>
-    <mergeCell ref="D113:D117"/>
-    <mergeCell ref="B113:B117"/>
-    <mergeCell ref="A113:A117"/>
-    <mergeCell ref="D108:D112"/>
-    <mergeCell ref="C108:C112"/>
-    <mergeCell ref="B108:B112"/>
-    <mergeCell ref="A100:A103"/>
-    <mergeCell ref="B100:B103"/>
-    <mergeCell ref="C100:C103"/>
-    <mergeCell ref="D100:D103"/>
-    <mergeCell ref="A104:A107"/>
-    <mergeCell ref="B104:B107"/>
-    <mergeCell ref="C104:C107"/>
-    <mergeCell ref="D104:D107"/>
-    <mergeCell ref="A92:A95"/>
-    <mergeCell ref="B92:B95"/>
-    <mergeCell ref="C92:C95"/>
-    <mergeCell ref="D92:D95"/>
-    <mergeCell ref="A96:A99"/>
-    <mergeCell ref="B96:B99"/>
-    <mergeCell ref="C96:C99"/>
-    <mergeCell ref="D96:D99"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="B84:B87"/>
-    <mergeCell ref="C84:C87"/>
-    <mergeCell ref="D84:D87"/>
-    <mergeCell ref="A88:A91"/>
-    <mergeCell ref="B88:B91"/>
-    <mergeCell ref="C88:C91"/>
-    <mergeCell ref="D88:D91"/>
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="B76:B79"/>
-    <mergeCell ref="C76:C79"/>
-    <mergeCell ref="D76:D79"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="B80:B83"/>
-    <mergeCell ref="C80:C83"/>
-    <mergeCell ref="D80:D83"/>
-    <mergeCell ref="A68:A71"/>
-    <mergeCell ref="B68:B71"/>
-    <mergeCell ref="C68:C71"/>
-    <mergeCell ref="D68:D71"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="C72:C75"/>
-    <mergeCell ref="D72:D75"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="D64:D67"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="C2:C8"/>
-    <mergeCell ref="D2:D8"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="D13:D16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="D25:D28"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="D37:D40"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="C45:C48"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="D45:D48"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="C49:C52"/>
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="D41:D44"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="C57:C60"/>
-    <mergeCell ref="D57:D60"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="C53:C56"/>
-    <mergeCell ref="D53:D56"/>
-    <mergeCell ref="G2:G8"/>
-    <mergeCell ref="G9:G12"/>
-    <mergeCell ref="G13:G16"/>
-    <mergeCell ref="G17:G20"/>
-    <mergeCell ref="G21:G24"/>
-    <mergeCell ref="G25:G28"/>
-    <mergeCell ref="G29:G32"/>
-    <mergeCell ref="G33:G36"/>
-    <mergeCell ref="G37:G40"/>
-    <mergeCell ref="G41:G44"/>
-    <mergeCell ref="G45:G48"/>
-    <mergeCell ref="G49:G52"/>
-    <mergeCell ref="G53:G56"/>
-    <mergeCell ref="G57:G60"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="C37:C40"/>
-    <mergeCell ref="G113:G117"/>
-    <mergeCell ref="G118:G120"/>
-    <mergeCell ref="G121:G124"/>
-    <mergeCell ref="G125:G129"/>
-    <mergeCell ref="G130:G134"/>
-    <mergeCell ref="G68:G71"/>
-    <mergeCell ref="G72:G75"/>
-    <mergeCell ref="G76:G79"/>
-    <mergeCell ref="G80:G83"/>
-    <mergeCell ref="G84:G87"/>
-    <mergeCell ref="G88:G91"/>
-    <mergeCell ref="G92:G95"/>
-    <mergeCell ref="G265:G267"/>
-    <mergeCell ref="G196:G204"/>
-    <mergeCell ref="G205:G213"/>
-    <mergeCell ref="G214:G222"/>
-    <mergeCell ref="G223:G231"/>
-    <mergeCell ref="G232:G240"/>
-    <mergeCell ref="G241:G249"/>
-    <mergeCell ref="G250:G258"/>
-    <mergeCell ref="G259:G261"/>
-    <mergeCell ref="G262:G264"/>
-    <mergeCell ref="G135:G139"/>
-    <mergeCell ref="G140:G144"/>
-    <mergeCell ref="G145:G149"/>
-    <mergeCell ref="G150:G154"/>
-    <mergeCell ref="G155:G159"/>
-    <mergeCell ref="G160:G168"/>
-    <mergeCell ref="G169:G177"/>
-    <mergeCell ref="G178:G186"/>
-    <mergeCell ref="G187:G195"/>
-    <mergeCell ref="G96:G99"/>
-    <mergeCell ref="G100:G103"/>
-    <mergeCell ref="G104:G107"/>
-    <mergeCell ref="G108:G112"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{5961BEB7-6E18-4E6A-9B2D-A765877C8A5E}"/>
